--- a/Charles Data.xlsx
+++ b/Charles Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\Isaacs Lab\DeepAxon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F76A0A-DBED-4A2F-AB52-54804790188C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D597EFED-376B-4063-990A-FBA9DAC3E25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Animal Tracking" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Full Data (Per Image)" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Full Data (Per Image)'!$A$1:$K$469</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Full Data (Per Image)'!$A$1:$K$781</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Full Data (Per Nerve)'!$A$1:$K$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5430" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5772" uniqueCount="480">
   <si>
     <t>Batch</t>
   </si>
@@ -1479,6 +1479,9 @@
   </si>
   <si>
     <t>da_avg</t>
+  </si>
+  <si>
+    <t>da_full</t>
   </si>
 </sst>
 </file>
@@ -6103,7 +6106,7 @@
   </sheetPr>
   <dimension ref="A1:K989"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L70" sqref="L70"/>
     </sheetView>
@@ -6180,7 +6183,7 @@
         <v>1.2970710000000001</v>
       </c>
       <c r="K2" s="8">
-        <f>(H2/G2)*F2</f>
+        <f t="shared" ref="K2:K47" si="0">(H2/G2)*F2</f>
         <v>10188.997520554905</v>
       </c>
     </row>
@@ -6216,7 +6219,7 @@
         <v>1.4770239999999999</v>
       </c>
       <c r="K3" s="8">
-        <f>(H3/G3)*F3</f>
+        <f t="shared" si="0"/>
         <v>7673.0310858290104</v>
       </c>
     </row>
@@ -6252,7 +6255,7 @@
         <v>1.726107287</v>
       </c>
       <c r="K4" s="8">
-        <f>(H4/G4)*F4</f>
+        <f t="shared" si="0"/>
         <v>12950.686915625092</v>
       </c>
     </row>
@@ -6288,7 +6291,7 @@
         <v>1.0427759999999999</v>
       </c>
       <c r="K5" s="8">
-        <f>(H5/G5)*F5</f>
+        <f t="shared" si="0"/>
         <v>9699.1720818921385</v>
       </c>
     </row>
@@ -6324,7 +6327,7 @@
         <v>1.5691930000000001</v>
       </c>
       <c r="K6" s="8">
-        <f>(H6/G6)*F6</f>
+        <f t="shared" si="0"/>
         <v>12347.934208041806</v>
       </c>
     </row>
@@ -6360,7 +6363,7 @@
         <v>1.0162869999999999</v>
       </c>
       <c r="K7" s="8">
-        <f>(H7/G7)*F7</f>
+        <f t="shared" si="0"/>
         <v>11429.067081473971</v>
       </c>
     </row>
@@ -6396,7 +6399,7 @@
         <v>1.5124139999999999</v>
       </c>
       <c r="K8" s="8">
-        <f>(H8/G8)*F8</f>
+        <f t="shared" si="0"/>
         <v>13260.216094559521</v>
       </c>
     </row>
@@ -6432,7 +6435,7 @@
         <v>1.356122</v>
       </c>
       <c r="K9" s="8">
-        <f>(H9/G9)*F9</f>
+        <f t="shared" si="0"/>
         <v>10258.275830792223</v>
       </c>
     </row>
@@ -6468,7 +6471,7 @@
         <v>1.6699889999999999</v>
       </c>
       <c r="K10" s="8">
-        <f>(H10/G10)*F10</f>
+        <f t="shared" si="0"/>
         <v>10597.569471109591</v>
       </c>
     </row>
@@ -6504,7 +6507,7 @@
         <v>1.6280079999999999</v>
       </c>
       <c r="K11" s="8">
-        <f>(H11/G11)*F11</f>
+        <f t="shared" si="0"/>
         <v>17847.408802085494</v>
       </c>
     </row>
@@ -6540,7 +6543,7 @@
         <v>1.25709</v>
       </c>
       <c r="K12" s="8">
-        <f>(H12/G12)*F12</f>
+        <f t="shared" si="0"/>
         <v>13495.762235764618</v>
       </c>
     </row>
@@ -6576,7 +6579,7 @@
         <v>1.680804</v>
       </c>
       <c r="K13" s="8">
-        <f>(H13/G13)*F13</f>
+        <f t="shared" si="0"/>
         <v>12731.961034411419</v>
       </c>
     </row>
@@ -6612,7 +6615,7 @@
         <v>1.9653750000000001</v>
       </c>
       <c r="K14" s="8">
-        <f>(H14/G14)*F14</f>
+        <f t="shared" si="0"/>
         <v>13988.754419418634</v>
       </c>
     </row>
@@ -6648,7 +6651,7 @@
         <v>1.800143</v>
       </c>
       <c r="K15" s="8">
-        <f>(H15/G15)*F15</f>
+        <f t="shared" si="0"/>
         <v>14212.139954109502</v>
       </c>
     </row>
@@ -6684,7 +6687,7 @@
         <v>0.80010199999999998</v>
       </c>
       <c r="K16" s="8">
-        <f>(H16/G16)*F16</f>
+        <f t="shared" si="0"/>
         <v>11038.617137621186</v>
       </c>
     </row>
@@ -6720,7 +6723,7 @@
         <v>1.004545</v>
       </c>
       <c r="K17" s="8">
-        <f>(H17/G17)*F17</f>
+        <f t="shared" si="0"/>
         <v>14595.286494975218</v>
       </c>
     </row>
@@ -6756,7 +6759,7 @@
         <v>1.066573</v>
       </c>
       <c r="K18" s="8">
-        <f>(H18/G18)*F18</f>
+        <f t="shared" si="0"/>
         <v>14879.504553567866</v>
       </c>
     </row>
@@ -6792,7 +6795,7 @@
         <v>0.75577899999999998</v>
       </c>
       <c r="K19" s="8">
-        <f>(H19/G19)*F19</f>
+        <f t="shared" si="0"/>
         <v>12317.326312022971</v>
       </c>
     </row>
@@ -6828,7 +6831,7 @@
         <v>1.161972</v>
       </c>
       <c r="K20" s="8">
-        <f>(H20/G20)*F20</f>
+        <f t="shared" si="0"/>
         <v>13582.717875788114</v>
       </c>
     </row>
@@ -6864,7 +6867,7 @@
         <v>0.86580100000000004</v>
       </c>
       <c r="K21" s="8">
-        <f>(H21/G21)*F21</f>
+        <f t="shared" si="0"/>
         <v>13597.162717275245</v>
       </c>
     </row>
@@ -6900,7 +6903,7 @@
         <v>1.80366</v>
       </c>
       <c r="K22" s="8">
-        <f>(H22/G22)*F22</f>
+        <f t="shared" si="0"/>
         <v>10002.10229418591</v>
       </c>
     </row>
@@ -6936,7 +6939,7 @@
         <v>0.967414</v>
       </c>
       <c r="K23" s="8">
-        <f>(H23/G23)*F23</f>
+        <f t="shared" si="0"/>
         <v>13974.012893349682</v>
       </c>
     </row>
@@ -6972,7 +6975,7 @@
         <v>1.7655920000000001</v>
       </c>
       <c r="K24" s="8">
-        <f>(H24/G24)*F24</f>
+        <f t="shared" si="0"/>
         <v>13218.681904540907</v>
       </c>
     </row>
@@ -7008,7 +7011,7 @@
         <v>2.6033596426713901</v>
       </c>
       <c r="K25" s="8">
-        <f>(H25/G25)*F25</f>
+        <f t="shared" si="0"/>
         <v>8697.6825453187466</v>
       </c>
     </row>
@@ -7044,7 +7047,7 @@
         <v>2.1367881057480198</v>
       </c>
       <c r="K26" s="8">
-        <f>(H26/G26)*F26</f>
+        <f t="shared" si="0"/>
         <v>8993.7847533632284</v>
       </c>
     </row>
@@ -7080,7 +7083,7 @@
         <v>2.7865429118671101</v>
       </c>
       <c r="K27" s="8">
-        <f>(H27/G27)*F27</f>
+        <f t="shared" si="0"/>
         <v>10599.002944226144</v>
       </c>
     </row>
@@ -7116,7 +7119,7 @@
         <v>1.73282232339109</v>
       </c>
       <c r="K28" s="8">
-        <f>(H28/G28)*F28</f>
+        <f t="shared" si="0"/>
         <v>8779.1541512946533</v>
       </c>
     </row>
@@ -7152,7 +7155,7 @@
         <v>2.4134484429345799</v>
       </c>
       <c r="K29" s="8">
-        <f>(H29/G29)*F29</f>
+        <f t="shared" si="0"/>
         <v>9904.1219488545594</v>
       </c>
     </row>
@@ -7188,7 +7191,7 @@
         <v>1.9873799957785501</v>
       </c>
       <c r="K30" s="8">
-        <f>(H30/G30)*F30</f>
+        <f t="shared" si="0"/>
         <v>9372.1774141254555</v>
       </c>
     </row>
@@ -7224,7 +7227,7 @@
         <v>2.6717543104295398</v>
       </c>
       <c r="K31" s="8">
-        <f>(H31/G31)*F31</f>
+        <f t="shared" si="0"/>
         <v>10346.661791605242</v>
       </c>
     </row>
@@ -7260,7 +7263,7 @@
         <v>2.0883732009588498</v>
       </c>
       <c r="K32" s="8">
-        <f>(H32/G32)*F32</f>
+        <f t="shared" si="0"/>
         <v>9151.9044081442244</v>
       </c>
     </row>
@@ -7296,7 +7299,7 @@
         <v>2.4468569995125899</v>
       </c>
       <c r="K33" s="8">
-        <f>(H33/G33)*F33</f>
+        <f t="shared" si="0"/>
         <v>9415.3704862846171</v>
       </c>
     </row>
@@ -7332,7 +7335,7 @@
         <v>2.5218021075155299</v>
       </c>
       <c r="K34" s="8">
-        <f>(H34/G34)*F34</f>
+        <f t="shared" si="0"/>
         <v>12998.539272141166</v>
       </c>
     </row>
@@ -7368,7 +7371,7 @@
         <v>2.4052781922462598</v>
       </c>
       <c r="K35" s="8">
-        <f>(H35/G35)*F35</f>
+        <f t="shared" si="0"/>
         <v>10420.30018091792</v>
       </c>
     </row>
@@ -7404,7 +7407,7 @@
         <v>2.5590054006869898</v>
       </c>
       <c r="K36" s="8">
-        <f>(H36/G36)*F36</f>
+        <f t="shared" si="0"/>
         <v>11633.251604716916</v>
       </c>
     </row>
@@ -7440,7 +7443,7 @@
         <v>2.8477406517769301</v>
       </c>
       <c r="K37" s="8">
-        <f>(H37/G37)*F37</f>
+        <f t="shared" si="0"/>
         <v>11954.026503866833</v>
       </c>
     </row>
@@ -7476,7 +7479,7 @@
         <v>2.8558740173208399</v>
       </c>
       <c r="K38" s="8">
-        <f>(H38/G38)*F38</f>
+        <f t="shared" si="0"/>
         <v>11908.478932450456</v>
       </c>
     </row>
@@ -7512,7 +7515,7 @@
         <v>1.5124732021899701</v>
       </c>
       <c r="K39" s="8">
-        <f>(H39/G39)*F39</f>
+        <f t="shared" si="0"/>
         <v>6696.7610634901866</v>
       </c>
     </row>
@@ -7548,7 +7551,7 @@
         <v>1.5867933399948699</v>
       </c>
       <c r="K40" s="8">
-        <f>(H40/G40)*F40</f>
+        <f t="shared" si="0"/>
         <v>12711.944097602296</v>
       </c>
     </row>
@@ -7584,7 +7587,7 @@
         <v>1.4978117895107499</v>
       </c>
       <c r="K41" s="8">
-        <f>(H41/G41)*F41</f>
+        <f t="shared" si="0"/>
         <v>14452.307099231853</v>
       </c>
     </row>
@@ -7620,7 +7623,7 @@
         <v>1.31894949665436</v>
       </c>
       <c r="K42" s="8">
-        <f>(H42/G42)*F42</f>
+        <f t="shared" si="0"/>
         <v>10201.244578765736</v>
       </c>
     </row>
@@ -7656,7 +7659,7 @@
         <v>1.84785205979099</v>
       </c>
       <c r="K43" s="8">
-        <f>(H43/G43)*F43</f>
+        <f t="shared" si="0"/>
         <v>10157.588069440628</v>
       </c>
     </row>
@@ -7692,7 +7695,7 @@
         <v>1.1904271408473499</v>
       </c>
       <c r="K44" s="8">
-        <f>(H44/G44)*F44</f>
+        <f t="shared" si="0"/>
         <v>13422.509753334671</v>
       </c>
     </row>
@@ -7728,7 +7731,7 @@
         <v>2.7552731442416301</v>
       </c>
       <c r="K45" s="8">
-        <f>(H45/G45)*F45</f>
+        <f t="shared" si="0"/>
         <v>8639.3901397844293</v>
       </c>
     </row>
@@ -7764,7 +7767,7 @@
         <v>1.41827000503874</v>
       </c>
       <c r="K46" s="8">
-        <f>(H46/G46)*F46</f>
+        <f t="shared" si="0"/>
         <v>14487.965161878523</v>
       </c>
     </row>
@@ -7800,7 +7803,7 @@
         <v>2.6338708602094898</v>
       </c>
       <c r="K47" s="8">
-        <f>(H47/G47)*F47</f>
+        <f t="shared" si="0"/>
         <v>12766.185145973228</v>
       </c>
     </row>
@@ -7836,7 +7839,7 @@
         <v>3.5299122966564398</v>
       </c>
       <c r="K48" s="8">
-        <f t="shared" ref="K48:K49" si="0">(H48/G48)*F48</f>
+        <f t="shared" ref="K48:K49" si="1">(H48/G48)*F48</f>
         <v>8697.6825453187466</v>
       </c>
     </row>
@@ -7872,7 +7875,7 @@
         <v>2.7881358096852802</v>
       </c>
       <c r="K49" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9314.7048159274837</v>
       </c>
     </row>
@@ -7908,7 +7911,7 @@
         <v>3.4661448120463798</v>
       </c>
       <c r="K50" s="8">
-        <f>(H50/G50)*F50</f>
+        <f t="shared" ref="K50:K81" si="2">(H50/G50)*F50</f>
         <v>10830.886326779862</v>
       </c>
     </row>
@@ -7944,7 +7947,7 @@
         <v>2.3225694571145601</v>
       </c>
       <c r="K51" s="8">
-        <f>(H51/G51)*F51</f>
+        <f t="shared" si="2"/>
         <v>9050.9270024638863</v>
       </c>
     </row>
@@ -7980,7 +7983,7 @@
         <v>2.9967257744670199</v>
       </c>
       <c r="K52" s="8">
-        <f>(H52/G52)*F52</f>
+        <f t="shared" si="2"/>
         <v>10219.144622890417</v>
       </c>
     </row>
@@ -8016,7 +8019,7 @@
         <v>2.7246715748156398</v>
       </c>
       <c r="K53" s="8">
-        <f>(H53/G53)*F53</f>
+        <f t="shared" si="2"/>
         <v>9658.3321003083056</v>
       </c>
     </row>
@@ -8052,7 +8055,7 @@
         <v>3.4936583850060599</v>
       </c>
       <c r="K54" s="8">
-        <f>(H54/G54)*F54</f>
+        <f t="shared" si="2"/>
         <v>10669.353785466374</v>
       </c>
     </row>
@@ -8088,7 +8091,7 @@
         <v>2.7050167428549199</v>
       </c>
       <c r="K55" s="8">
-        <f>(H55/G55)*F55</f>
+        <f t="shared" si="2"/>
         <v>9464.6387302793937</v>
       </c>
     </row>
@@ -8124,7 +8127,7 @@
         <v>3.0450639400299999</v>
       </c>
       <c r="K56" s="8">
-        <f>(H56/G56)*F56</f>
+        <f t="shared" si="2"/>
         <v>9732.0309286484498</v>
       </c>
     </row>
@@ -8160,7 +8163,7 @@
         <v>3.1765917513391502</v>
       </c>
       <c r="K57" s="8">
-        <f>(H57/G57)*F57</f>
+        <f t="shared" si="2"/>
         <v>13502.212468140006</v>
       </c>
     </row>
@@ -8196,7 +8199,7 @@
         <v>3.2392805855845901</v>
       </c>
       <c r="K58" s="8">
-        <f>(H58/G58)*F58</f>
+        <f t="shared" si="2"/>
         <v>10665.883760236145</v>
       </c>
     </row>
@@ -8232,7 +8235,7 @@
         <v>3.19950736891052</v>
       </c>
       <c r="K59" s="8">
-        <f>(H59/G59)*F59</f>
+        <f t="shared" si="2"/>
         <v>12018.041911592303</v>
       </c>
     </row>
@@ -8268,7 +8271,7 @@
         <v>3.4509968290016899</v>
       </c>
       <c r="K60" s="8">
-        <f>(H60/G60)*F60</f>
+        <f t="shared" si="2"/>
         <v>12308.0062314435</v>
       </c>
     </row>
@@ -8304,7 +8307,7 @@
         <v>3.6075263931261898</v>
       </c>
       <c r="K61" s="8">
-        <f>(H61/G61)*F61</f>
+        <f t="shared" si="2"/>
         <v>12244.916241901677</v>
       </c>
     </row>
@@ -8340,7 +8343,7 @@
         <v>2.1779687108383499</v>
       </c>
       <c r="K62" s="8">
-        <f>(H62/G62)*F62</f>
+        <f t="shared" si="2"/>
         <v>7345.3577766611488</v>
       </c>
     </row>
@@ -8376,7 +8379,7 @@
         <v>2.1806938642221501</v>
       </c>
       <c r="K63" s="8">
-        <f>(H63/G63)*F63</f>
+        <f t="shared" si="2"/>
         <v>13620.292724382422</v>
       </c>
     </row>
@@ -8412,7 +8415,7 @@
         <v>1.98983146405456</v>
       </c>
       <c r="K64" s="8">
-        <f>(H64/G64)*F64</f>
+        <f t="shared" si="2"/>
         <v>15020.696932543326</v>
       </c>
     </row>
@@ -8448,7 +8451,7 @@
         <v>1.9591354146851401</v>
       </c>
       <c r="K65" s="8">
-        <f>(H65/G65)*F65</f>
+        <f t="shared" si="2"/>
         <v>11201.86017902715</v>
       </c>
     </row>
@@ -8484,7 +8487,7 @@
         <v>2.4176720275124799</v>
       </c>
       <c r="K66" s="8">
-        <f>(H66/G66)*F66</f>
+        <f t="shared" si="2"/>
         <v>10777.712155080439</v>
       </c>
     </row>
@@ -8520,7 +8523,7 @@
         <v>1.58584890384316</v>
       </c>
       <c r="K67" s="8">
-        <f>(H67/G67)*F67</f>
+        <f t="shared" si="2"/>
         <v>14083.900485634224</v>
       </c>
     </row>
@@ -8556,7 +8559,7 @@
         <v>3.4472220504112498</v>
       </c>
       <c r="K68" s="8">
-        <f>(H68/G68)*F68</f>
+        <f t="shared" si="2"/>
         <v>8920.1293355032303</v>
       </c>
     </row>
@@ -8592,7 +8595,7 @@
         <v>1.9685840164789501</v>
       </c>
       <c r="K69" s="8">
-        <f>(H69/G69)*F69</f>
+        <f t="shared" si="2"/>
         <v>15184.046146924866</v>
       </c>
     </row>
@@ -8628,7 +8631,7 @@
         <v>3.3726766785976601</v>
       </c>
       <c r="K70" s="8">
-        <f>(H70/G70)*F70</f>
+        <f t="shared" si="2"/>
         <v>13156.102565590056</v>
       </c>
     </row>
@@ -8664,7 +8667,7 @@
         <v>3.5662850000000001</v>
       </c>
       <c r="K71" s="8">
-        <f>(H71/G71)*F71</f>
+        <f t="shared" si="2"/>
         <v>5631.6501594803567</v>
       </c>
     </row>
@@ -8700,7 +8703,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="K72" s="8">
-        <f>(H72/G72)*F72</f>
+        <f t="shared" si="2"/>
         <v>3928.2339902961353</v>
       </c>
     </row>
@@ -8736,7 +8739,7 @@
         <v>3.8958828570000001</v>
       </c>
       <c r="K73" s="8">
-        <f>(H73/G73)*F73</f>
+        <f t="shared" si="2"/>
         <v>11261.80294602552</v>
       </c>
     </row>
@@ -8772,7 +8775,7 @@
         <v>2.4447166669999998</v>
       </c>
       <c r="K74" s="8">
-        <f>(H74/G74)*F74</f>
+        <f t="shared" si="2"/>
         <v>7469.2981145117919</v>
       </c>
     </row>
@@ -8808,7 +8811,7 @@
         <v>3.947861429</v>
       </c>
       <c r="K75" s="8">
-        <f>(H75/G75)*F75</f>
+        <f t="shared" si="2"/>
         <v>10658.267138213125</v>
       </c>
     </row>
@@ -8844,7 +8847,7 @@
         <v>2.1417014999999999</v>
       </c>
       <c r="K76" s="8">
-        <f>(H76/G76)*F76</f>
+        <f t="shared" si="2"/>
         <v>6388.3422248683955</v>
       </c>
     </row>
@@ -8880,7 +8883,7 @@
         <v>3.7390012499999998</v>
       </c>
       <c r="K77" s="8">
-        <f>(H77/G77)*F77</f>
+        <f t="shared" si="2"/>
         <v>10682.410686952086</v>
       </c>
     </row>
@@ -8916,7 +8919,7 @@
         <v>3.0260316669999998</v>
       </c>
       <c r="K78" s="8">
-        <f>(H78/G78)*F78</f>
+        <f t="shared" si="2"/>
         <v>7948.1723003032057</v>
       </c>
     </row>
@@ -8952,7 +8955,7 @@
         <v>3.1058942859999998</v>
       </c>
       <c r="K79" s="8">
-        <f>(H79/G79)*F79</f>
+        <f t="shared" si="2"/>
         <v>9345.0014990926556</v>
       </c>
     </row>
@@ -8988,7 +8991,7 @@
         <v>3.3535387499999998</v>
       </c>
       <c r="K80" s="8">
-        <f>(H80/G80)*F80</f>
+        <f t="shared" si="2"/>
         <v>13672.558526081533</v>
       </c>
     </row>
@@ -9024,7 +9027,7 @@
         <v>3.0057100000000001</v>
       </c>
       <c r="K81" s="8">
-        <f>(H81/G81)*F81</f>
+        <f t="shared" si="2"/>
         <v>11228.836888211768</v>
       </c>
     </row>
@@ -9060,7 +9063,7 @@
         <v>3.7282583329999999</v>
       </c>
       <c r="K82" s="8">
-        <f>(H82/G82)*F82</f>
+        <f t="shared" ref="K82:K116" si="3">(H82/G82)*F82</f>
         <v>10786.22891662644</v>
       </c>
     </row>
@@ -9096,7 +9099,7 @@
         <v>4.5508533330000001</v>
       </c>
       <c r="K83" s="8">
-        <f>(H83/G83)*F83</f>
+        <f t="shared" si="3"/>
         <v>11558.093623392191</v>
       </c>
     </row>
@@ -9132,7 +9135,7 @@
         <v>4.3040324999999999</v>
       </c>
       <c r="K84" s="8">
-        <f>(H84/G84)*F84</f>
+        <f t="shared" si="3"/>
         <v>11957.542706745427</v>
       </c>
     </row>
@@ -9168,7 +9171,7 @@
         <v>3.3691983329999999</v>
       </c>
       <c r="K85" s="8">
-        <f>(H85/G85)*F85</f>
+        <f t="shared" si="3"/>
         <v>4745.9817184913691</v>
       </c>
     </row>
@@ -9204,7 +9207,7 @@
         <v>3.0836350000000001</v>
       </c>
       <c r="K86" s="8">
-        <f>(H86/G86)*F86</f>
+        <f t="shared" si="3"/>
         <v>11307.459400216723</v>
       </c>
     </row>
@@ -9240,7 +9243,7 @@
         <v>2.2894316670000001</v>
       </c>
       <c r="K87" s="8">
-        <f>(H87/G87)*F87</f>
+        <f t="shared" si="3"/>
         <v>15075.001693687735</v>
       </c>
     </row>
@@ -9276,7 +9279,7 @@
         <v>2.277825</v>
       </c>
       <c r="K88" s="8">
-        <f>(H88/G88)*F88</f>
+        <f t="shared" si="3"/>
         <v>7315.821605684866</v>
       </c>
     </row>
@@ -9312,7 +9315,7 @@
         <v>2.8071171430000001</v>
       </c>
       <c r="K89" s="8">
-        <f>(H89/G89)*F89</f>
+        <f t="shared" si="3"/>
         <v>12795.893767126849</v>
       </c>
     </row>
@@ -9348,7 +9351,7 @@
         <v>1.4928429999999999</v>
       </c>
       <c r="K90" s="8">
-        <f>(H90/G90)*F90</f>
+        <f t="shared" si="3"/>
         <v>10877.157541151539</v>
       </c>
     </row>
@@ -9384,7 +9387,7 @@
         <v>3.66995</v>
       </c>
       <c r="K91" s="8">
-        <f>(H91/G91)*F91</f>
+        <f t="shared" si="3"/>
         <v>8883.2438937299576</v>
       </c>
     </row>
@@ -9420,7 +9423,7 @@
         <v>2.1477062500000001</v>
       </c>
       <c r="K92" s="8">
-        <f>(H92/G92)*F92</f>
+        <f t="shared" si="3"/>
         <v>14240.968683313693</v>
       </c>
     </row>
@@ -9456,7 +9459,7 @@
         <v>4.28820625</v>
       </c>
       <c r="K93" s="8">
-        <f>(H93/G93)*F93</f>
+        <f t="shared" si="3"/>
         <v>10551.83930617395</v>
       </c>
     </row>
@@ -9489,7 +9492,7 @@
         <v>0.50684594999999999</v>
       </c>
       <c r="K94" s="8">
-        <f>(H94/G94)*F94</f>
+        <f t="shared" si="3"/>
         <v>8507.0484073391581</v>
       </c>
     </row>
@@ -9522,7 +9525,7 @@
         <v>0.53357549999999998</v>
       </c>
       <c r="K95" s="8">
-        <f>(H95/G95)*F95</f>
+        <f t="shared" si="3"/>
         <v>5915.6264866010888</v>
       </c>
     </row>
@@ -9555,7 +9558,7 @@
         <v>0.71278471430000001</v>
       </c>
       <c r="K96" s="8">
-        <f>(H96/G96)*F96</f>
+        <f t="shared" si="3"/>
         <v>11304.3148994937</v>
       </c>
     </row>
@@ -9588,7 +9591,7 @@
         <v>0.51616361669999999</v>
       </c>
       <c r="K97" s="8">
-        <f>(H97/G97)*F97</f>
+        <f t="shared" si="3"/>
         <v>7598.50160113323</v>
       </c>
     </row>
@@ -9621,7 +9624,7 @@
         <v>0.68404452859999998</v>
       </c>
       <c r="K98" s="8">
-        <f>(H98/G98)*F98</f>
+        <f t="shared" si="3"/>
         <v>10713.157452628464</v>
       </c>
     </row>
@@ -9654,7 +9657,7 @@
         <v>0.4535713167</v>
       </c>
       <c r="K99" s="8">
-        <f>(H99/G99)*F99</f>
+        <f t="shared" si="3"/>
         <v>9499.3572746511672</v>
       </c>
     </row>
@@ -9687,7 +9690,7 @@
         <v>0.70298527499999997</v>
       </c>
       <c r="K100" s="8">
-        <f>(H100/G100)*F100</f>
+        <f t="shared" si="3"/>
         <v>11592.663247670194</v>
       </c>
     </row>
@@ -9720,7 +9723,7 @@
         <v>0.56084706669999995</v>
       </c>
       <c r="K101" s="8">
-        <f>(H101/G101)*F101</f>
+        <f t="shared" si="3"/>
         <v>8440.8763738557791</v>
       </c>
     </row>
@@ -9753,7 +9756,7 @@
         <v>0.6566712857</v>
       </c>
       <c r="K102" s="8">
-        <f>(H102/G102)*F102</f>
+        <f t="shared" si="3"/>
         <v>9706.2289666780634</v>
       </c>
     </row>
@@ -9786,7 +9789,7 @@
         <v>0.64474625559999998</v>
       </c>
       <c r="K103" s="8">
-        <f>(H103/G103)*F103</f>
+        <f t="shared" si="3"/>
         <v>13459.117435327271</v>
       </c>
     </row>
@@ -9819,7 +9822,7 @@
         <v>0.64688142859999997</v>
       </c>
       <c r="K104" s="8">
-        <f>(H104/G104)*F104</f>
+        <f t="shared" si="3"/>
         <v>11721.893151304514</v>
       </c>
     </row>
@@ -9852,7 +9855,7 @@
         <v>0.7281366333</v>
       </c>
       <c r="K105" s="8">
-        <f>(H105/G105)*F105</f>
+        <f t="shared" si="3"/>
         <v>11371.884603820426</v>
       </c>
     </row>
@@ -9885,7 +9888,7 @@
         <v>0.74284008329999995</v>
       </c>
       <c r="K106" s="8">
-        <f>(H106/G106)*F106</f>
+        <f t="shared" si="3"/>
         <v>12292.273799106759</v>
       </c>
     </row>
@@ -9918,7 +9921,7 @@
         <v>0.72479090000000002</v>
       </c>
       <c r="K107" s="8">
-        <f>(H107/G107)*F107</f>
+        <f t="shared" si="3"/>
         <v>12387.434824377542</v>
       </c>
     </row>
@@ -9951,7 +9954,7 @@
         <v>0.42546149999999999</v>
       </c>
       <c r="K108" s="8">
-        <f>(H108/G108)*F108</f>
+        <f t="shared" si="3"/>
         <v>8702.4216688342403</v>
       </c>
     </row>
@@ -9984,7 +9987,7 @@
         <v>0.54596983330000004</v>
       </c>
       <c r="K109" s="8">
-        <f>(H109/G109)*F109</f>
+        <f t="shared" si="3"/>
         <v>12529.28703678238</v>
       </c>
     </row>
@@ -10017,7 +10020,7 @@
         <v>0.51106268330000004</v>
       </c>
       <c r="K110" s="8">
-        <f>(H110/G110)*F110</f>
+        <f t="shared" si="3"/>
         <v>13243.121084416362</v>
       </c>
     </row>
@@ -10050,7 +10053,7 @@
         <v>0.3048350333</v>
       </c>
       <c r="K111" s="8">
-        <f>(H111/G111)*F111</f>
+        <f t="shared" si="3"/>
         <v>10117.859945410619</v>
       </c>
     </row>
@@ -10083,7 +10086,7 @@
         <v>0.57021038570000004</v>
       </c>
       <c r="K112" s="8">
-        <f>(H112/G112)*F112</f>
+        <f t="shared" si="3"/>
         <v>11786.802961103644</v>
       </c>
     </row>
@@ -10116,7 +10119,7 @@
         <v>0.43843130000000002</v>
       </c>
       <c r="K113" s="8">
-        <f>(H113/G113)*F113</f>
+        <f t="shared" si="3"/>
         <v>9557.2392398957181</v>
       </c>
     </row>
@@ -10149,7 +10152,7 @@
         <v>0.67720522859999999</v>
       </c>
       <c r="K114" s="8">
-        <f>(H114/G114)*F114</f>
+        <f t="shared" si="3"/>
         <v>9526.6899335526105</v>
       </c>
     </row>
@@ -10182,7 +10185,7 @@
         <v>0.51637082499999998</v>
       </c>
       <c r="K115" s="8">
-        <f>(H115/G115)*F115</f>
+        <f t="shared" si="3"/>
         <v>12232.562973771381</v>
       </c>
     </row>
@@ -10215,7 +10218,7 @@
         <v>0.654212825</v>
       </c>
       <c r="K116" s="8">
-        <f>(H116/G116)*F116</f>
+        <f t="shared" si="3"/>
         <v>10920.094646923177</v>
       </c>
     </row>
@@ -12850,20 +12853,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K781"/>
+  <dimension ref="A1:K838"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A767" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F783" sqref="F783"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A803" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I815" sqref="I815"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12901,7 +12904,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
@@ -12936,7 +12939,7 @@
         <v>1.3577650000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -12971,7 +12974,7 @@
         <v>1.142361</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -13006,7 +13009,7 @@
         <v>1.1334299999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -13041,7 +13044,7 @@
         <v>1.356735</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>72</v>
       </c>
@@ -13076,7 +13079,7 @@
         <v>1.3282449999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -13111,7 +13114,7 @@
         <v>1.5863579999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -13146,7 +13149,7 @@
         <v>1.4515960000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -13181,7 +13184,7 @@
         <v>1.183875</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -13216,7 +13219,7 @@
         <v>1.0812310000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
@@ -13251,7 +13254,7 @@
         <v>1.1267640000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
@@ -13286,7 +13289,7 @@
         <v>2.6575920000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
@@ -13321,7 +13324,7 @@
         <v>2.8889149999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -13356,7 +13359,7 @@
         <v>1.6060920000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -13391,7 +13394,7 @@
         <v>1.6309359999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -13426,7 +13429,7 @@
         <v>1.6806460000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -13461,7 +13464,7 @@
         <v>1.703301</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -13496,7 +13499,7 @@
         <v>1.5975520000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -13531,7 +13534,7 @@
         <v>1.717886</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
@@ -13566,7 +13569,7 @@
         <v>2.5354839999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
@@ -13601,7 +13604,7 @@
         <v>1.0363579999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
@@ -13636,7 +13639,7 @@
         <v>1.407462</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -13671,7 +13674,7 @@
         <v>1.482021</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -13706,7 +13709,7 @@
         <v>0.87770000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -13741,7 +13744,7 @@
         <v>0.87855300000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
@@ -13776,7 +13779,7 @@
         <v>0.98798200000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>64</v>
       </c>
@@ -13811,7 +13814,7 @@
         <v>1.3808240000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
@@ -13846,7 +13849,7 @@
         <v>1.4343140000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -13881,7 +13884,7 @@
         <v>1.51641</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>64</v>
       </c>
@@ -13916,7 +13919,7 @@
         <v>1.792808</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
@@ -13951,7 +13954,7 @@
         <v>1.800179</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -13986,7 +13989,7 @@
         <v>1.6199140000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -14021,7 +14024,7 @@
         <v>1.791345</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -14056,7 +14059,7 @@
         <v>1.351138</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
@@ -14091,7 +14094,7 @@
         <v>1.0851189999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
@@ -14126,7 +14129,7 @@
         <v>0.95667899999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>58</v>
       </c>
@@ -14161,7 +14164,7 @@
         <v>0.89392499999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>58</v>
       </c>
@@ -14196,7 +14199,7 @@
         <v>0.94827399999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>58</v>
       </c>
@@ -14231,7 +14234,7 @@
         <v>1.0076590000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -14266,7 +14269,7 @@
         <v>1.608479</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
@@ -14301,7 +14304,7 @@
         <v>1.196458</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
@@ -14336,7 +14339,7 @@
         <v>1.1734169999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>38</v>
       </c>
@@ -14371,7 +14374,7 @@
         <v>1.1934959999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
@@ -14406,7 +14409,7 @@
         <v>1.6263939999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>38</v>
       </c>
@@ -14441,7 +14444,7 @@
         <v>2.8721030000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>38</v>
       </c>
@@ -14476,7 +14479,7 @@
         <v>2.0707059999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>38</v>
       </c>
@@ -14511,7 +14514,7 @@
         <v>1.4523330000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
@@ -14546,7 +14549,7 @@
         <v>1.6324129999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -14581,7 +14584,7 @@
         <v>1.1303609999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
@@ -14616,7 +14619,7 @@
         <v>0.98474099999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
@@ -14651,7 +14654,7 @@
         <v>1.9235819999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
@@ -14686,7 +14689,7 @@
         <v>2.1079970000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
@@ -14721,7 +14724,7 @@
         <v>1.4386699999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>40</v>
       </c>
@@ -14756,7 +14759,7 @@
         <v>2.3631489999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>40</v>
       </c>
@@ -14791,7 +14794,7 @@
         <v>1.912785</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>40</v>
       </c>
@@ -14826,7 +14829,7 @@
         <v>1.3503050000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>40</v>
       </c>
@@ -14861,7 +14864,7 @@
         <v>1.5008570000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>40</v>
       </c>
@@ -14896,7 +14899,7 @@
         <v>1.7629999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>40</v>
       </c>
@@ -14931,7 +14934,7 @@
         <v>1.560851</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>40</v>
       </c>
@@ -14966,7 +14969,7 @@
         <v>1.714329</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>67</v>
       </c>
@@ -15001,7 +15004,7 @@
         <v>1.7198310000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>67</v>
       </c>
@@ -15036,7 +15039,7 @@
         <v>2.2588050000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
@@ -15071,7 +15074,7 @@
         <v>2.3948040000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>67</v>
       </c>
@@ -15106,7 +15109,7 @@
         <v>1.299415</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>67</v>
       </c>
@@ -15141,7 +15144,7 @@
         <v>1.4261280000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
@@ -15176,7 +15179,7 @@
         <v>1.3848259999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
@@ -15211,7 +15214,7 @@
         <v>1.985317</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -15246,7 +15249,7 @@
         <v>1.655618</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
@@ -15281,7 +15284,7 @@
         <v>1.368665</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
@@ -15316,7 +15319,7 @@
         <v>1.4442710000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -15351,7 +15354,7 @@
         <v>0.87150399999999995</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -15386,7 +15389,7 @@
         <v>1.618417</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>70</v>
       </c>
@@ -15421,7 +15424,7 @@
         <v>1.3271299999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>70</v>
       </c>
@@ -15456,7 +15459,7 @@
         <v>1.0850070000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>70</v>
       </c>
@@ -15491,7 +15494,7 @@
         <v>1.2479039999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>70</v>
       </c>
@@ -15526,7 +15529,7 @@
         <v>1.598068</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>50</v>
       </c>
@@ -15561,7 +15564,7 @@
         <v>1.5903830000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>50</v>
       </c>
@@ -15596,7 +15599,7 @@
         <v>1.553938</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>50</v>
       </c>
@@ -15631,7 +15634,7 @@
         <v>1.8404670000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>50</v>
       </c>
@@ -15666,7 +15669,7 @@
         <v>2.3806219999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>50</v>
       </c>
@@ -15701,7 +15704,7 @@
         <v>1.396873</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>50</v>
       </c>
@@ -15736,7 +15739,7 @@
         <v>1.680032</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>48</v>
       </c>
@@ -15771,7 +15774,7 @@
         <v>2.045938</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>48</v>
       </c>
@@ -15806,7 +15809,7 @@
         <v>2.015387</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>48</v>
       </c>
@@ -15841,7 +15844,7 @@
         <v>2.0036130000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>48</v>
       </c>
@@ -15876,7 +15879,7 @@
         <v>2.0830649999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>48</v>
       </c>
@@ -15911,7 +15914,7 @@
         <v>1.8154090000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>48</v>
       </c>
@@ -15946,7 +15949,7 @@
         <v>1.877991</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>46</v>
       </c>
@@ -15981,7 +15984,7 @@
         <v>1.8370379999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>46</v>
       </c>
@@ -16016,7 +16019,7 @@
         <v>1.5577259999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>46</v>
       </c>
@@ -16051,7 +16054,7 @@
         <v>1.758076</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>46</v>
       </c>
@@ -16086,7 +16089,7 @@
         <v>1.894091</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>46</v>
       </c>
@@ -16121,7 +16124,7 @@
         <v>2.0098639999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>46</v>
       </c>
@@ -16156,7 +16159,7 @@
         <v>2.114538</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>46</v>
       </c>
@@ -16191,7 +16194,7 @@
         <v>1.7977909999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>46</v>
       </c>
@@ -16226,7 +16229,7 @@
         <v>1.615985</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>105</v>
       </c>
@@ -16261,7 +16264,7 @@
         <v>0.86630700000000005</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>105</v>
       </c>
@@ -16296,7 +16299,7 @@
         <v>0.80215199999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>105</v>
       </c>
@@ -16331,7 +16334,7 @@
         <v>0.74236599999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>105</v>
       </c>
@@ -16366,7 +16369,7 @@
         <v>0.91607899999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>105</v>
       </c>
@@ -16401,7 +16404,7 @@
         <v>0.79574699999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>105</v>
       </c>
@@ -16436,7 +16439,7 @@
         <v>0.74100100000000002</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>103</v>
       </c>
@@ -16471,7 +16474,7 @@
         <v>0.92912600000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
@@ -16506,7 +16509,7 @@
         <v>1.198442</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
@@ -16541,7 +16544,7 @@
         <v>0.89370799999999995</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>103</v>
       </c>
@@ -16576,7 +16579,7 @@
         <v>0.95596000000000003</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>103</v>
       </c>
@@ -16611,7 +16614,7 @@
         <v>1.0372440000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>103</v>
       </c>
@@ -16646,7 +16649,7 @@
         <v>1.0030790000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>93</v>
       </c>
@@ -16681,7 +16684,7 @@
         <v>1.033668</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>93</v>
       </c>
@@ -16716,7 +16719,7 @@
         <v>1.0301979999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>93</v>
       </c>
@@ -16751,7 +16754,7 @@
         <v>1.1066229999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>93</v>
       </c>
@@ -16786,7 +16789,7 @@
         <v>1.2417050000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>93</v>
       </c>
@@ -16821,7 +16824,7 @@
         <v>1.0784499999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>93</v>
       </c>
@@ -16856,7 +16859,7 @@
         <v>0.97384700000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>107</v>
       </c>
@@ -16891,7 +16894,7 @@
         <v>0.80233299999999996</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>107</v>
       </c>
@@ -16926,7 +16929,7 @@
         <v>0.71320600000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>107</v>
       </c>
@@ -16961,7 +16964,7 @@
         <v>0.71715399999999996</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>107</v>
       </c>
@@ -16996,7 +16999,7 @@
         <v>0.78524799999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>107</v>
       </c>
@@ -17031,7 +17034,7 @@
         <v>0.71125899999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>107</v>
       </c>
@@ -17066,7 +17069,7 @@
         <v>0.82342800000000005</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>110</v>
       </c>
@@ -17101,7 +17104,7 @@
         <v>1.162323</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>110</v>
       </c>
@@ -17136,7 +17139,7 @@
         <v>1.173578</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>110</v>
       </c>
@@ -17171,7 +17174,7 @@
         <v>1.122717</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>110</v>
       </c>
@@ -17206,7 +17209,7 @@
         <v>1.211875</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>110</v>
       </c>
@@ -17241,7 +17244,7 @@
         <v>1.174353</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>110</v>
       </c>
@@ -17276,7 +17279,7 @@
         <v>1.16266</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>110</v>
       </c>
@@ -17311,7 +17314,7 @@
         <v>1.1231519999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>96</v>
       </c>
@@ -17346,7 +17349,7 @@
         <v>0.82555000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>96</v>
       </c>
@@ -17381,7 +17384,7 @@
         <v>0.89438300000000004</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>96</v>
       </c>
@@ -17416,7 +17419,7 @@
         <v>0.79269400000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>96</v>
       </c>
@@ -17451,7 +17454,7 @@
         <v>0.92486500000000005</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>96</v>
       </c>
@@ -17486,7 +17489,7 @@
         <v>1.003825</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>96</v>
       </c>
@@ -17521,7 +17524,7 @@
         <v>0.91858700000000004</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>96</v>
       </c>
@@ -17556,7 +17559,7 @@
         <v>0.77538799999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>42</v>
       </c>
@@ -17591,7 +17594,7 @@
         <v>1.7573460000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>42</v>
       </c>
@@ -17626,7 +17629,7 @@
         <v>1.7415609999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>42</v>
       </c>
@@ -17661,7 +17664,7 @@
         <v>1.740969</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>42</v>
       </c>
@@ -17696,7 +17699,7 @@
         <v>1.773001</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>42</v>
       </c>
@@ -17731,7 +17734,7 @@
         <v>1.809552</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>42</v>
       </c>
@@ -17766,7 +17769,7 @@
         <v>1.9437219999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>42</v>
       </c>
@@ -17801,7 +17804,7 @@
         <v>1.8485830000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>99</v>
       </c>
@@ -17836,7 +17839,7 @@
         <v>1.067553</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>99</v>
       </c>
@@ -17871,7 +17874,7 @@
         <v>1.0372570000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>99</v>
       </c>
@@ -17906,7 +17909,7 @@
         <v>0.979572</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>99</v>
       </c>
@@ -17941,7 +17944,7 @@
         <v>0.83674099999999996</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>99</v>
       </c>
@@ -17976,7 +17979,7 @@
         <v>1.081412</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>99</v>
       </c>
@@ -18011,7 +18014,7 @@
         <v>0.92384699999999997</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>99</v>
       </c>
@@ -18046,7 +18049,7 @@
         <v>0.93335599999999996</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>99</v>
       </c>
@@ -18081,7 +18084,7 @@
         <v>0.94896999999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>44</v>
       </c>
@@ -18116,7 +18119,7 @@
         <v>1.904188</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>44</v>
       </c>
@@ -18151,7 +18154,7 @@
         <v>2.5026410000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>44</v>
       </c>
@@ -18186,7 +18189,7 @@
         <v>2.335731</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>44</v>
       </c>
@@ -18221,7 +18224,7 @@
         <v>1.687495</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>44</v>
       </c>
@@ -18256,7 +18259,7 @@
         <v>1.3715139999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>44</v>
       </c>
@@ -18291,7 +18294,7 @@
         <v>1.2856129999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>44</v>
       </c>
@@ -18326,7 +18329,7 @@
         <v>1.4484520000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>44</v>
       </c>
@@ -18361,7 +18364,7 @@
         <v>2.1386180000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>72</v>
       </c>
@@ -18396,7 +18399,7 @@
         <v>3.9462999999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>72</v>
       </c>
@@ -18431,7 +18434,7 @@
         <v>3.3835700000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>72</v>
       </c>
@@ -18466,7 +18469,7 @@
         <v>3.2393700000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>72</v>
       </c>
@@ -18501,7 +18504,7 @@
         <v>3.7538999999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>72</v>
       </c>
@@ -18536,7 +18539,7 @@
         <v>3.47526</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>72</v>
       </c>
@@ -18571,7 +18574,7 @@
         <v>3.59931</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>52</v>
       </c>
@@ -18606,7 +18609,7 @@
         <v>2.8199999999999999E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>52</v>
       </c>
@@ -18641,7 +18644,7 @@
         <v>1.1157999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>52</v>
       </c>
@@ -18676,7 +18679,7 @@
         <v>1.68031</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>52</v>
       </c>
@@ -18711,7 +18714,7 @@
         <v>1.02325</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>52</v>
       </c>
@@ -18746,7 +18749,7 @@
         <v>5.7058</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>52</v>
       </c>
@@ -18781,7 +18784,7 @@
         <v>5.7418199999999997</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>34</v>
       </c>
@@ -18816,7 +18819,7 @@
         <v>3.3308200000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>34</v>
       </c>
@@ -18851,7 +18854,7 @@
         <v>3.5381900000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>34</v>
       </c>
@@ -18886,7 +18889,7 @@
         <v>3.71807</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>34</v>
       </c>
@@ -18921,7 +18924,7 @@
         <v>3.8561200000000002</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>34</v>
       </c>
@@ -18956,7 +18959,7 @@
         <v>3.3919999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>34</v>
       </c>
@@ -18991,7 +18994,7 @@
         <v>3.88578</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>34</v>
       </c>
@@ -19026,7 +19029,7 @@
         <v>5.5502000000000002</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>55</v>
       </c>
@@ -19061,7 +19064,7 @@
         <v>2.3152300000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>55</v>
       </c>
@@ -19096,7 +19099,7 @@
         <v>2.94841</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>55</v>
       </c>
@@ -19131,7 +19134,7 @@
         <v>3.31873</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>55</v>
       </c>
@@ -19166,7 +19169,7 @@
         <v>1.85473</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>55</v>
       </c>
@@ -19201,7 +19204,7 @@
         <v>2.1437900000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>55</v>
       </c>
@@ -19236,7 +19239,7 @@
         <v>2.0874100000000002</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>64</v>
       </c>
@@ -19271,7 +19274,7 @@
         <v>3.2126899999999998</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>64</v>
       </c>
@@ -19306,7 +19309,7 @@
         <v>3.35345</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>64</v>
       </c>
@@ -19341,7 +19344,7 @@
         <v>3.5100600000000002</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>64</v>
       </c>
@@ -19376,7 +19379,7 @@
         <v>4.3292200000000003</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>64</v>
       </c>
@@ -19411,7 +19414,7 @@
         <v>4.83704</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>64</v>
       </c>
@@ -19446,7 +19449,7 @@
         <v>3.7410299999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>64</v>
       </c>
@@ -19481,7 +19484,7 @@
         <v>4.6515399999999998</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>58</v>
       </c>
@@ -19516,7 +19519,7 @@
         <v>2.76233</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>58</v>
       </c>
@@ -19551,7 +19554,7 @@
         <v>2.9152200000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>58</v>
       </c>
@@ -19586,7 +19589,7 @@
         <v>2.2379500000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>58</v>
       </c>
@@ -19621,7 +19624,7 @@
         <v>1.91249</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>58</v>
       </c>
@@ -19656,7 +19659,7 @@
         <v>2.05905</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>58</v>
       </c>
@@ -19691,7 +19694,7 @@
         <v>0.96316900000000005</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>38</v>
       </c>
@@ -19726,7 +19729,7 @@
         <v>3.6530900000000002</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>38</v>
       </c>
@@ -19761,7 +19764,7 @@
         <v>2.88557</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>38</v>
       </c>
@@ -19796,7 +19799,7 @@
         <v>2.95228</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>38</v>
       </c>
@@ -19831,7 +19834,7 @@
         <v>2.7067100000000002</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>38</v>
       </c>
@@ -19866,7 +19869,7 @@
         <v>3.7014900000000002</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>38</v>
       </c>
@@ -19901,7 +19904,7 @@
         <v>6.4601199999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>38</v>
       </c>
@@ -19936,7 +19939,7 @@
         <v>4.9055099999999996</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>38</v>
       </c>
@@ -19971,7 +19974,7 @@
         <v>2.64724</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>61</v>
       </c>
@@ -20006,7 +20009,7 @@
         <v>3.3440400000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>61</v>
       </c>
@@ -20041,7 +20044,7 @@
         <v>1.76207</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>61</v>
       </c>
@@ -20076,7 +20079,7 @@
         <v>1.5952</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>61</v>
       </c>
@@ -20111,7 +20114,7 @@
         <v>4.4000599999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>61</v>
       </c>
@@ -20146,7 +20149,7 @@
         <v>4.8768799999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>61</v>
       </c>
@@ -20181,7 +20184,7 @@
         <v>2.17794</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>40</v>
       </c>
@@ -20216,7 +20219,7 @@
         <v>4.7454599999999996</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>40</v>
       </c>
@@ -20251,7 +20254,7 @@
         <v>2.9452600000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>40</v>
       </c>
@@ -20286,7 +20289,7 @@
         <v>1.90412</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>40</v>
       </c>
@@ -20321,7 +20324,7 @@
         <v>2.4117700000000002</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>40</v>
       </c>
@@ -20356,7 +20359,7 @@
         <v>3.67455</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>40</v>
       </c>
@@ -20391,7 +20394,7 @@
         <v>3.1209099999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>40</v>
       </c>
@@ -20426,7 +20429,7 @@
         <v>2.93919</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>67</v>
       </c>
@@ -20461,7 +20464,7 @@
         <v>3.2957000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>67</v>
       </c>
@@ -20496,7 +20499,7 @@
         <v>4.4225000000000003</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>67</v>
       </c>
@@ -20531,7 +20534,7 @@
         <v>4.5829800000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>67</v>
       </c>
@@ -20566,7 +20569,7 @@
         <v>2.6089600000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>67</v>
       </c>
@@ -20601,7 +20604,7 @@
         <v>2.8615300000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>67</v>
       </c>
@@ -20636,7 +20639,7 @@
         <v>2.16249</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>67</v>
       </c>
@@ -20671,7 +20674,7 @@
         <v>3.9931899999999998</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>67</v>
       </c>
@@ -20706,7 +20709,7 @@
         <v>2.90096</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>67</v>
       </c>
@@ -20741,7 +20744,7 @@
         <v>2.2732000000000001</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>70</v>
       </c>
@@ -20776,7 +20779,7 @@
         <v>3.2892600000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>70</v>
       </c>
@@ -20811,7 +20814,7 @@
         <v>1.9814000000000001</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>70</v>
       </c>
@@ -20846,7 +20849,7 @@
         <v>3.2965499999999999</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>70</v>
       </c>
@@ -20881,7 +20884,7 @@
         <v>2.87866</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>70</v>
       </c>
@@ -20916,7 +20919,7 @@
         <v>2.7322199999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>70</v>
       </c>
@@ -20951,7 +20954,7 @@
         <v>2.9078300000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>70</v>
       </c>
@@ -20986,7 +20989,7 @@
         <v>3.9540500000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>50</v>
       </c>
@@ -21021,7 +21024,7 @@
         <v>3.4394399999999998</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>50</v>
       </c>
@@ -21056,7 +21059,7 @@
         <v>3.4569399999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>50</v>
       </c>
@@ -21091,7 +21094,7 @@
         <v>3.5678299999999998</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>50</v>
       </c>
@@ -21126,7 +21129,7 @@
         <v>5.19963</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>50</v>
       </c>
@@ -21161,7 +21164,7 @@
         <v>3.17422</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>50</v>
       </c>
@@ -21196,7 +21199,7 @@
         <v>3.5314899999999998</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>48</v>
       </c>
@@ -21231,7 +21234,7 @@
         <v>4.6844200000000003</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>48</v>
       </c>
@@ -21266,7 +21269,7 @@
         <v>4.6674499999999997</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>48</v>
       </c>
@@ -21301,7 +21304,7 @@
         <v>4.6517999999999997</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>48</v>
       </c>
@@ -21336,7 +21339,7 @@
         <v>4.8063099999999999</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>48</v>
       </c>
@@ -21371,7 +21374,7 @@
         <v>4.2030399999999997</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>48</v>
       </c>
@@ -21406,7 +21409,7 @@
         <v>4.2920999999999996</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>46</v>
       </c>
@@ -21441,7 +21444,7 @@
         <v>4.5226199999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>46</v>
       </c>
@@ -21476,7 +21479,7 @@
         <v>3.7776999999999998</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>46</v>
       </c>
@@ -21511,7 +21514,7 @@
         <v>4.19564</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>46</v>
       </c>
@@ -21546,7 +21549,7 @@
         <v>4.4214000000000002</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>46</v>
       </c>
@@ -21581,7 +21584,7 @@
         <v>4.7938200000000002</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>46</v>
       </c>
@@ -21616,7 +21619,7 @@
         <v>4.7261800000000003</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>46</v>
       </c>
@@ -21651,7 +21654,7 @@
         <v>4.1701499999999996</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>46</v>
       </c>
@@ -21686,7 +21689,7 @@
         <v>3.8247499999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>105</v>
       </c>
@@ -21721,7 +21724,7 @@
         <v>2.7756500000000002</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>105</v>
       </c>
@@ -21756,7 +21759,7 @@
         <v>3.4274100000000001</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>105</v>
       </c>
@@ -21791,7 +21794,7 @@
         <v>3.3618600000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>105</v>
       </c>
@@ -21826,7 +21829,7 @@
         <v>4.76755</v>
       </c>
     </row>
-    <row r="257" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>105</v>
       </c>
@@ -21861,7 +21864,7 @@
         <v>1.9112499999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>105</v>
       </c>
@@ -21896,7 +21899,7 @@
         <v>3.9714700000000001</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>103</v>
       </c>
@@ -21931,7 +21934,7 @@
         <v>2.9707300000000001</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>103</v>
       </c>
@@ -21966,7 +21969,7 @@
         <v>3.8119999999999998</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>103</v>
       </c>
@@ -22001,7 +22004,7 @@
         <v>2.6382400000000001</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>103</v>
       </c>
@@ -22036,7 +22039,7 @@
         <v>2.7018900000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>103</v>
       </c>
@@ -22071,7 +22074,7 @@
         <v>3.1389800000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>103</v>
       </c>
@@ -22106,7 +22109,7 @@
         <v>3.23997</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>93</v>
       </c>
@@ -22141,7 +22144,7 @@
         <v>2.7183199999999998</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>93</v>
       </c>
@@ -22176,7 +22179,7 @@
         <v>2.4496699999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>93</v>
       </c>
@@ -22211,7 +22214,7 @@
         <v>1.9656499999999999</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>93</v>
       </c>
@@ -22246,7 +22249,7 @@
         <v>2.6387800000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>93</v>
       </c>
@@ -22281,7 +22284,7 @@
         <v>1.8002499999999999</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>93</v>
       </c>
@@ -22316,7 +22319,7 @@
         <v>2.1639200000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>107</v>
       </c>
@@ -22351,7 +22354,7 @@
         <v>2.3009300000000001</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>107</v>
       </c>
@@ -22386,7 +22389,7 @@
         <v>2.1104400000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>107</v>
       </c>
@@ -22421,7 +22424,7 @@
         <v>2.4422999999999999</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>107</v>
       </c>
@@ -22456,7 +22459,7 @@
         <v>1.98644</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>107</v>
       </c>
@@ -22491,7 +22494,7 @@
         <v>2.1548400000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>107</v>
       </c>
@@ -22526,7 +22529,7 @@
         <v>2.6720000000000002</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>110</v>
       </c>
@@ -22561,7 +22564,7 @@
         <v>3.3263199999999999</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>110</v>
       </c>
@@ -22596,7 +22599,7 @@
         <v>2.91812</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>110</v>
       </c>
@@ -22631,7 +22634,7 @@
         <v>2.6270500000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>110</v>
       </c>
@@ -22666,7 +22669,7 @@
         <v>3.1545800000000002</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>110</v>
       </c>
@@ -22701,7 +22704,7 @@
         <v>2.7656800000000001</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>110</v>
       </c>
@@ -22736,7 +22739,7 @@
         <v>2.6456200000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>110</v>
       </c>
@@ -22771,7 +22774,7 @@
         <v>2.21245</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>96</v>
       </c>
@@ -22806,7 +22809,7 @@
         <v>2.0203500000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>96</v>
       </c>
@@ -22841,7 +22844,7 @@
         <v>1.15734</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>96</v>
       </c>
@@ -22876,7 +22879,7 @@
         <v>0.93971199999999999</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>96</v>
       </c>
@@ -22911,7 +22914,7 @@
         <v>0.78601900000000002</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>96</v>
       </c>
@@ -22946,7 +22949,7 @@
         <v>2.1758299999999999</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>96</v>
       </c>
@@ -22981,7 +22984,7 @@
         <v>1.82772</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>96</v>
       </c>
@@ -23016,7 +23019,7 @@
         <v>1.5429299999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>42</v>
       </c>
@@ -23051,7 +23054,7 @@
         <v>3.5985800000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>42</v>
       </c>
@@ -23086,7 +23089,7 @@
         <v>3.6428199999999999</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>42</v>
       </c>
@@ -23121,7 +23124,7 @@
         <v>3.6421700000000001</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>42</v>
       </c>
@@ -23156,7 +23159,7 @@
         <v>3.28898</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>42</v>
       </c>
@@ -23191,7 +23194,7 @@
         <v>3.5233599999999998</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>42</v>
       </c>
@@ -23226,7 +23229,7 @@
         <v>4.0091200000000002</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>42</v>
       </c>
@@ -23261,7 +23264,7 @@
         <v>3.9846200000000001</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>99</v>
       </c>
@@ -23296,7 +23299,7 @@
         <v>2.54508</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>99</v>
       </c>
@@ -23331,7 +23334,7 @@
         <v>2.1619299999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>99</v>
       </c>
@@ -23366,7 +23369,7 @@
         <v>1.78407</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>99</v>
       </c>
@@ -23401,7 +23404,7 @@
         <v>1.8867499999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>99</v>
       </c>
@@ -23436,7 +23439,7 @@
         <v>2.9248400000000001</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>99</v>
       </c>
@@ -23471,7 +23474,7 @@
         <v>1.8058700000000001</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>99</v>
       </c>
@@ -23506,7 +23509,7 @@
         <v>1.69289</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>99</v>
       </c>
@@ -23541,7 +23544,7 @@
         <v>2.38022</v>
       </c>
     </row>
-    <row r="306" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>44</v>
       </c>
@@ -23576,7 +23579,7 @@
         <v>5.5671099999999996</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>44</v>
       </c>
@@ -23611,7 +23614,7 @@
         <v>5.07864</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>44</v>
       </c>
@@ -23646,7 +23649,7 @@
         <v>3.8917199999999998</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>44</v>
       </c>
@@ -23681,7 +23684,7 @@
         <v>2.93546</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>44</v>
       </c>
@@ -23716,7 +23719,7 @@
         <v>2.8101400000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>44</v>
       </c>
@@ -23751,7 +23754,7 @@
         <v>5.01511</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>44</v>
       </c>
@@ -23786,7 +23789,7 @@
         <v>4.8538699999999997</v>
       </c>
     </row>
-    <row r="313" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>44</v>
       </c>
@@ -23821,7 +23824,7 @@
         <v>4.1536</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>72</v>
       </c>
@@ -23853,7 +23856,7 @@
         <v>0.51539250000000003</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>72</v>
       </c>
@@ -23885,7 +23888,7 @@
         <v>0.59877720000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>72</v>
       </c>
@@ -23917,7 +23920,7 @@
         <v>0.45413710000000002</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>72</v>
       </c>
@@ -23949,7 +23952,7 @@
         <v>0.4165664</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>72</v>
       </c>
@@ -23981,7 +23984,7 @@
         <v>0.39158389999999998</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>72</v>
       </c>
@@ -24013,7 +24016,7 @@
         <v>0.66461859999999995</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>52</v>
       </c>
@@ -24045,7 +24048,7 @@
         <v>0.46813339999999998</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>52</v>
       </c>
@@ -24077,7 +24080,7 @@
         <v>0.52939329999999996</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>52</v>
       </c>
@@ -24109,7 +24112,7 @@
         <v>0.49062099999999997</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>52</v>
       </c>
@@ -24141,7 +24144,7 @@
         <v>0.43807449999999998</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>52</v>
       </c>
@@ -24173,7 +24176,7 @@
         <v>0.63197669999999995</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>52</v>
       </c>
@@ -24429,7 +24432,7 @@
         <v>0.73549469999999995</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>55</v>
       </c>
@@ -24461,7 +24464,7 @@
         <v>0.52461310000000005</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>55</v>
       </c>
@@ -24493,7 +24496,7 @@
         <v>0.48959229999999998</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>55</v>
       </c>
@@ -24525,7 +24528,7 @@
         <v>0.58471119999999999</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>55</v>
       </c>
@@ -24557,7 +24560,7 @@
         <v>0.47960180000000002</v>
       </c>
     </row>
-    <row r="337" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>55</v>
       </c>
@@ -24589,7 +24592,7 @@
         <v>0.51217820000000003</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>55</v>
       </c>
@@ -24621,7 +24624,7 @@
         <v>0.50628510000000004</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>64</v>
       </c>
@@ -24653,7 +24656,7 @@
         <v>0.73413410000000001</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>64</v>
       </c>
@@ -24685,7 +24688,7 @@
         <v>0.68948050000000005</v>
       </c>
     </row>
-    <row r="341" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>64</v>
       </c>
@@ -24717,7 +24720,7 @@
         <v>0.67827760000000004</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>64</v>
       </c>
@@ -24749,7 +24752,7 @@
         <v>0.68591170000000001</v>
       </c>
     </row>
-    <row r="343" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>64</v>
       </c>
@@ -24781,7 +24784,7 @@
         <v>0.63823160000000001</v>
       </c>
     </row>
-    <row r="344" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>64</v>
       </c>
@@ -24813,7 +24816,7 @@
         <v>0.68088610000000005</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>64</v>
       </c>
@@ -24845,7 +24848,7 @@
         <v>0.6813901</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>58</v>
       </c>
@@ -24877,7 +24880,7 @@
         <v>0.46749210000000002</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>58</v>
       </c>
@@ -24909,7 +24912,7 @@
         <v>0.46579520000000002</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>58</v>
       </c>
@@ -24941,7 +24944,7 @@
         <v>0.43554199999999998</v>
       </c>
     </row>
-    <row r="349" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>58</v>
       </c>
@@ -24973,7 +24976,7 @@
         <v>0.45703500000000002</v>
       </c>
     </row>
-    <row r="350" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>58</v>
       </c>
@@ -25005,7 +25008,7 @@
         <v>0.49342720000000001</v>
       </c>
     </row>
-    <row r="351" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>58</v>
       </c>
@@ -25293,7 +25296,7 @@
         <v>0.67149709999999996</v>
       </c>
     </row>
-    <row r="360" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>61</v>
       </c>
@@ -25325,7 +25328,7 @@
         <v>0.54272790000000004</v>
       </c>
     </row>
-    <row r="361" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>61</v>
       </c>
@@ -25357,7 +25360,7 @@
         <v>0.53933969999999998</v>
       </c>
     </row>
-    <row r="362" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>61</v>
       </c>
@@ -25389,7 +25392,7 @@
         <v>0.57670619999999995</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>61</v>
       </c>
@@ -25421,7 +25424,7 @@
         <v>0.60338420000000004</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>61</v>
       </c>
@@ -25453,7 +25456,7 @@
         <v>0.59558250000000001</v>
       </c>
     </row>
-    <row r="365" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>61</v>
       </c>
@@ -25709,7 +25712,7 @@
         <v>0.64964690000000003</v>
       </c>
     </row>
-    <row r="373" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>67</v>
       </c>
@@ -25741,7 +25744,7 @@
         <v>0.60918309999999998</v>
       </c>
     </row>
-    <row r="374" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>67</v>
       </c>
@@ -25773,7 +25776,7 @@
         <v>0.70941560000000004</v>
       </c>
     </row>
-    <row r="375" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>67</v>
       </c>
@@ -25805,7 +25808,7 @@
         <v>0.68930469999999999</v>
       </c>
     </row>
-    <row r="376" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>67</v>
       </c>
@@ -25837,7 +25840,7 @@
         <v>0.68119249999999998</v>
       </c>
     </row>
-    <row r="377" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>67</v>
       </c>
@@ -25869,7 +25872,7 @@
         <v>0.67596599999999996</v>
       </c>
     </row>
-    <row r="378" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>67</v>
       </c>
@@ -25901,7 +25904,7 @@
         <v>0.53955940000000002</v>
       </c>
     </row>
-    <row r="379" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>67</v>
       </c>
@@ -25933,7 +25936,7 @@
         <v>0.70082199999999994</v>
       </c>
     </row>
-    <row r="380" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>67</v>
       </c>
@@ -25965,7 +25968,7 @@
         <v>0.58845829999999999</v>
       </c>
     </row>
-    <row r="381" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>67</v>
       </c>
@@ -25997,7 +26000,7 @@
         <v>0.60881470000000004</v>
       </c>
     </row>
-    <row r="382" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>70</v>
       </c>
@@ -26029,7 +26032,7 @@
         <v>0.67578959999999999</v>
       </c>
     </row>
-    <row r="383" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>70</v>
       </c>
@@ -26061,7 +26064,7 @@
         <v>0.60249189999999997</v>
       </c>
     </row>
-    <row r="384" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>70</v>
       </c>
@@ -26093,7 +26096,7 @@
         <v>0.61176649999999999</v>
       </c>
     </row>
-    <row r="385" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>70</v>
       </c>
@@ -26125,7 +26128,7 @@
         <v>0.65858229999999995</v>
       </c>
     </row>
-    <row r="386" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>70</v>
       </c>
@@ -26157,7 +26160,7 @@
         <v>0.64542109999999997</v>
       </c>
     </row>
-    <row r="387" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>70</v>
       </c>
@@ -26189,7 +26192,7 @@
         <v>0.66139760000000003</v>
       </c>
     </row>
-    <row r="388" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>70</v>
       </c>
@@ -26861,7 +26864,7 @@
         <v>0.72809630000000003</v>
       </c>
     </row>
-    <row r="409" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>105</v>
       </c>
@@ -26893,7 +26896,7 @@
         <v>0.40905999999999998</v>
       </c>
     </row>
-    <row r="410" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>105</v>
       </c>
@@ -26925,7 +26928,7 @@
         <v>0.49682110000000002</v>
       </c>
     </row>
-    <row r="411" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>105</v>
       </c>
@@ -26957,7 +26960,7 @@
         <v>0.42791859999999998</v>
       </c>
     </row>
-    <row r="412" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>105</v>
       </c>
@@ -26989,7 +26992,7 @@
         <v>0.28579919999999998</v>
       </c>
     </row>
-    <row r="413" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>105</v>
       </c>
@@ -27021,7 +27024,7 @@
         <v>0.5464717</v>
       </c>
     </row>
-    <row r="414" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>105</v>
       </c>
@@ -27053,7 +27056,7 @@
         <v>0.3866984</v>
       </c>
     </row>
-    <row r="415" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>103</v>
       </c>
@@ -27085,7 +27088,7 @@
         <v>0.52539009999999997</v>
       </c>
     </row>
-    <row r="416" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>103</v>
       </c>
@@ -27117,7 +27120,7 @@
         <v>0.59324069999999995</v>
       </c>
     </row>
-    <row r="417" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>103</v>
       </c>
@@ -27149,7 +27152,7 @@
         <v>0.54211169999999997</v>
       </c>
     </row>
-    <row r="418" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>103</v>
       </c>
@@ -27181,7 +27184,7 @@
         <v>0.51286469999999995</v>
       </c>
     </row>
-    <row r="419" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>103</v>
       </c>
@@ -27213,7 +27216,7 @@
         <v>0.54774239999999996</v>
       </c>
     </row>
-    <row r="420" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>103</v>
       </c>
@@ -27245,7 +27248,7 @@
         <v>0.5544694</v>
       </c>
     </row>
-    <row r="421" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>93</v>
       </c>
@@ -27277,7 +27280,7 @@
         <v>0.53781290000000004</v>
       </c>
     </row>
-    <row r="422" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>93</v>
       </c>
@@ -27309,7 +27312,7 @@
         <v>0.55269210000000002</v>
       </c>
     </row>
-    <row r="423" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>93</v>
       </c>
@@ -27341,7 +27344,7 @@
         <v>0.48555340000000002</v>
       </c>
     </row>
-    <row r="424" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>93</v>
       </c>
@@ -27373,7 +27376,7 @@
         <v>0.53595300000000001</v>
       </c>
     </row>
-    <row r="425" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>93</v>
       </c>
@@ -27405,7 +27408,7 @@
         <v>0.43667879999999998</v>
       </c>
     </row>
-    <row r="426" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>93</v>
       </c>
@@ -27437,7 +27440,7 @@
         <v>0.51768590000000003</v>
       </c>
     </row>
-    <row r="427" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>107</v>
       </c>
@@ -27469,7 +27472,7 @@
         <v>0.30242419999999998</v>
       </c>
     </row>
-    <row r="428" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>107</v>
       </c>
@@ -27501,7 +27504,7 @@
         <v>0.30279099999999998</v>
       </c>
     </row>
-    <row r="429" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>107</v>
       </c>
@@ -27533,7 +27536,7 @@
         <v>0.33055030000000002</v>
       </c>
     </row>
-    <row r="430" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>107</v>
       </c>
@@ -27565,7 +27568,7 @@
         <v>0.28035870000000002</v>
       </c>
     </row>
-    <row r="431" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>107</v>
       </c>
@@ -27597,7 +27600,7 @@
         <v>0.2810299</v>
       </c>
     </row>
-    <row r="432" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>107</v>
       </c>
@@ -27629,7 +27632,7 @@
         <v>0.33185609999999999</v>
       </c>
     </row>
-    <row r="433" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>110</v>
       </c>
@@ -27661,7 +27664,7 @@
         <v>0.59244810000000003</v>
       </c>
     </row>
-    <row r="434" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>110</v>
       </c>
@@ -27693,7 +27696,7 @@
         <v>0.62765709999999997</v>
       </c>
     </row>
-    <row r="435" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>110</v>
       </c>
@@ -27725,7 +27728,7 @@
         <v>0.57332309999999997</v>
       </c>
     </row>
-    <row r="436" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>110</v>
       </c>
@@ -27757,7 +27760,7 @@
         <v>0.57064349999999997</v>
       </c>
     </row>
-    <row r="437" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>110</v>
       </c>
@@ -27789,7 +27792,7 @@
         <v>0.56531609999999999</v>
       </c>
     </row>
-    <row r="438" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>110</v>
       </c>
@@ -27821,7 +27824,7 @@
         <v>0.56355049999999995</v>
       </c>
     </row>
-    <row r="439" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>110</v>
       </c>
@@ -27853,7 +27856,7 @@
         <v>0.49853429999999999</v>
       </c>
     </row>
-    <row r="440" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>96</v>
       </c>
@@ -27885,7 +27888,7 @@
         <v>0.49378820000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>96</v>
       </c>
@@ -27917,7 +27920,7 @@
         <v>0.38303549999999997</v>
       </c>
     </row>
-    <row r="442" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>96</v>
       </c>
@@ -27949,7 +27952,7 @@
         <v>0.4160739</v>
       </c>
     </row>
-    <row r="443" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>96</v>
       </c>
@@ -27981,7 +27984,7 @@
         <v>0.35937930000000001</v>
       </c>
     </row>
-    <row r="444" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>96</v>
       </c>
@@ -28013,7 +28016,7 @@
         <v>0.50394150000000004</v>
       </c>
     </row>
-    <row r="445" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>96</v>
       </c>
@@ -28045,7 +28048,7 @@
         <v>0.44436959999999998</v>
       </c>
     </row>
-    <row r="446" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>96</v>
       </c>
@@ -28301,7 +28304,7 @@
         <v>0.72466549999999996</v>
       </c>
     </row>
-    <row r="454" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>99</v>
       </c>
@@ -28333,7 +28336,7 @@
         <v>0.55280410000000002</v>
       </c>
     </row>
-    <row r="455" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>99</v>
       </c>
@@ -28365,7 +28368,7 @@
         <v>0.50157949999999996</v>
       </c>
     </row>
-    <row r="456" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>99</v>
       </c>
@@ -28397,7 +28400,7 @@
         <v>0.54853439999999998</v>
       </c>
     </row>
-    <row r="457" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>99</v>
       </c>
@@ -28429,7 +28432,7 @@
         <v>0.52878899999999995</v>
       </c>
     </row>
-    <row r="458" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>99</v>
       </c>
@@ -28461,7 +28464,7 @@
         <v>0.63219400000000003</v>
       </c>
     </row>
-    <row r="459" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>99</v>
       </c>
@@ -28493,7 +28496,7 @@
         <v>0.4508799</v>
       </c>
     </row>
-    <row r="460" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>99</v>
       </c>
@@ -28525,7 +28528,7 @@
         <v>0.45346700000000001</v>
       </c>
     </row>
-    <row r="461" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:10" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>99</v>
       </c>
@@ -28813,7 +28816,7 @@
         <v>0.69674329999999995</v>
       </c>
     </row>
-    <row r="470" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>72</v>
       </c>
@@ -28848,7 +28851,7 @@
         <v>3.3318489427659701</v>
       </c>
     </row>
-    <row r="471" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>72</v>
       </c>
@@ -28883,7 +28886,7 @@
         <v>3.6926734861602899</v>
       </c>
     </row>
-    <row r="472" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>72</v>
       </c>
@@ -28918,7 +28921,7 @@
         <v>3.30666874566935</v>
       </c>
     </row>
-    <row r="473" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>72</v>
       </c>
@@ -28953,7 +28956,7 @@
         <v>3.7700767556105701</v>
       </c>
     </row>
-    <row r="474" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>72</v>
       </c>
@@ -28988,7 +28991,7 @@
         <v>3.5329046424846999</v>
       </c>
     </row>
-    <row r="475" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>72</v>
       </c>
@@ -29023,7 +29026,7 @@
         <v>3.51815282084734</v>
       </c>
     </row>
-    <row r="476" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>52</v>
       </c>
@@ -29058,7 +29061,7 @@
         <v>2.47567291302737</v>
       </c>
     </row>
-    <row r="477" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>52</v>
       </c>
@@ -29093,7 +29096,7 @@
         <v>2.26586828456748</v>
       </c>
     </row>
-    <row r="478" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>52</v>
       </c>
@@ -29128,7 +29131,7 @@
         <v>2.3255669882815</v>
       </c>
     </row>
-    <row r="479" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>52</v>
       </c>
@@ -29163,7 +29166,7 @@
         <v>2.2263762481734699</v>
       </c>
     </row>
-    <row r="480" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>52</v>
       </c>
@@ -29198,7 +29201,7 @@
         <v>4.12464749882374</v>
       </c>
     </row>
-    <row r="481" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>52</v>
       </c>
@@ -29233,7 +29236,7 @@
         <v>4.2276127876450502</v>
       </c>
     </row>
-    <row r="482" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>34</v>
       </c>
@@ -29268,7 +29271,7 @@
         <v>3.3486621484864201</v>
       </c>
     </row>
-    <row r="483" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>34</v>
       </c>
@@ -29303,7 +29306,7 @@
         <v>3.28392121728255</v>
       </c>
     </row>
-    <row r="484" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>34</v>
       </c>
@@ -29338,7 +29341,7 @@
         <v>3.4679075981501502</v>
       </c>
     </row>
-    <row r="485" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>34</v>
       </c>
@@ -29373,7 +29376,7 @@
         <v>3.8582167174333</v>
       </c>
     </row>
-    <row r="486" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
         <v>34</v>
       </c>
@@ -29408,7 +29411,7 @@
         <v>3.1413846945825501</v>
       </c>
     </row>
-    <row r="487" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>34</v>
       </c>
@@ -29443,7 +29446,7 @@
         <v>3.26745579513319</v>
       </c>
     </row>
-    <row r="488" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>34</v>
       </c>
@@ -29478,7 +29481,7 @@
         <v>4.09243357645434</v>
       </c>
     </row>
-    <row r="489" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>55</v>
       </c>
@@ -29513,7 +29516,7 @@
         <v>2.0599613817160001</v>
       </c>
     </row>
-    <row r="490" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>55</v>
       </c>
@@ -29548,7 +29551,7 @@
         <v>2.4986147651026398</v>
       </c>
     </row>
-    <row r="491" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>55</v>
       </c>
@@ -29583,7 +29586,7 @@
         <v>2.9547931969595398</v>
       </c>
     </row>
-    <row r="492" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>55</v>
       </c>
@@ -29618,7 +29621,7 @@
         <v>2.1234036361740398</v>
       </c>
     </row>
-    <row r="493" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>55</v>
       </c>
@@ -29653,7 +29656,7 @@
         <v>2.4767479232116898</v>
       </c>
     </row>
-    <row r="494" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>55</v>
       </c>
@@ -29688,7 +29691,7 @@
         <v>2.0175511271083799</v>
       </c>
     </row>
-    <row r="495" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>64</v>
       </c>
@@ -29723,7 +29726,7 @@
         <v>2.8916428825889802</v>
       </c>
     </row>
-    <row r="496" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>64</v>
       </c>
@@ -29758,7 +29761,7 @@
         <v>2.7086587510918201</v>
       </c>
     </row>
-    <row r="497" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
         <v>64</v>
       </c>
@@ -29793,7 +29796,7 @@
         <v>2.8306743153557701</v>
       </c>
     </row>
-    <row r="498" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>64</v>
       </c>
@@ -29828,7 +29831,7 @@
         <v>3.0890387222032798</v>
       </c>
     </row>
-    <row r="499" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>64</v>
       </c>
@@ -29863,7 +29866,7 @@
         <v>3.5244638342128098</v>
       </c>
     </row>
-    <row r="500" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>64</v>
       </c>
@@ -29898,7 +29901,7 @@
         <v>2.8508018995205302</v>
       </c>
     </row>
-    <row r="501" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>64</v>
       </c>
@@ -29933,7 +29936,7 @@
         <v>3.1933409806920201</v>
       </c>
     </row>
-    <row r="502" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>58</v>
       </c>
@@ -29968,7 +29971,7 @@
         <v>3.07135744762178</v>
       </c>
     </row>
-    <row r="503" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
         <v>58</v>
       </c>
@@ -30003,7 +30006,7 @@
         <v>3.0096891193854001</v>
       </c>
     </row>
-    <row r="504" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>58</v>
       </c>
@@ -30038,7 +30041,7 @@
         <v>2.64303258231923</v>
       </c>
     </row>
-    <row r="505" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
         <v>58</v>
       </c>
@@ -30073,7 +30076,7 @@
         <v>2.5941915673403502</v>
       </c>
     </row>
-    <row r="506" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>58</v>
       </c>
@@ -30108,7 +30111,7 @@
         <v>2.4486283153449699</v>
       </c>
     </row>
-    <row r="507" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>58</v>
       </c>
@@ -30143,7 +30146,7 @@
         <v>2.3724720617231401</v>
       </c>
     </row>
-    <row r="508" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>38</v>
       </c>
@@ -30178,7 +30181,7 @@
         <v>3.5933110232191101</v>
       </c>
     </row>
-    <row r="509" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>38</v>
       </c>
@@ -30213,7 +30216,7 @@
         <v>3.2168281900814302</v>
       </c>
     </row>
-    <row r="510" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>38</v>
       </c>
@@ -30248,7 +30251,7 @@
         <v>3.26036248960393</v>
       </c>
     </row>
-    <row r="511" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
         <v>38</v>
       </c>
@@ -30283,7 +30286,7 @@
         <v>3.27794931257786</v>
       </c>
     </row>
-    <row r="512" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>38</v>
       </c>
@@ -30318,7 +30321,7 @@
         <v>3.2701936501029301</v>
       </c>
     </row>
-    <row r="513" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
         <v>38</v>
       </c>
@@ -30353,7 +30356,7 @@
         <v>4.2147458339720902</v>
       </c>
     </row>
-    <row r="514" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>38</v>
       </c>
@@ -30388,7 +30391,7 @@
         <v>3.6094196478935898</v>
       </c>
     </row>
-    <row r="515" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
         <v>38</v>
       </c>
@@ -30423,7 +30426,7 @@
         <v>3.4302056781285599</v>
       </c>
     </row>
-    <row r="516" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>61</v>
       </c>
@@ -30458,7 +30461,7 @@
         <v>3.0271270186667301</v>
       </c>
     </row>
-    <row r="517" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>61</v>
       </c>
@@ -30493,7 +30496,7 @@
         <v>2.3800289262621002</v>
       </c>
     </row>
-    <row r="518" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>61</v>
       </c>
@@ -30528,7 +30531,7 @@
         <v>2.1399731808746298</v>
       </c>
     </row>
-    <row r="519" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>61</v>
       </c>
@@ -30563,7 +30566,7 @@
         <v>3.0603967778181</v>
       </c>
     </row>
-    <row r="520" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>61</v>
       </c>
@@ -30598,7 +30601,7 @@
         <v>3.5878693090457201</v>
       </c>
     </row>
-    <row r="521" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
         <v>61</v>
       </c>
@@ -30633,7 +30636,7 @@
         <v>2.7070257774055801</v>
       </c>
     </row>
-    <row r="522" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>40</v>
       </c>
@@ -30668,7 +30671,7 @@
         <v>3.5905042966858201</v>
       </c>
     </row>
-    <row r="523" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
         <v>40</v>
       </c>
@@ -30703,7 +30706,7 @@
         <v>3.1157674400939501</v>
       </c>
     </row>
-    <row r="524" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>40</v>
       </c>
@@ -30738,7 +30741,7 @@
         <v>2.4406194505607699</v>
       </c>
     </row>
-    <row r="525" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
         <v>40</v>
       </c>
@@ -30773,7 +30776,7 @@
         <v>2.67635134880328</v>
       </c>
     </row>
-    <row r="526" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
         <v>40</v>
       </c>
@@ -30808,7 +30811,7 @@
         <v>3.2944069576282402</v>
       </c>
     </row>
-    <row r="527" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
         <v>40</v>
       </c>
@@ -30843,7 +30846,7 @@
         <v>3.1067990886910102</v>
       </c>
     </row>
-    <row r="528" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
         <v>40</v>
       </c>
@@ -30878,7 +30881,7 @@
         <v>3.1175630859278001</v>
       </c>
     </row>
-    <row r="529" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
         <v>67</v>
       </c>
@@ -30913,7 +30916,7 @@
         <v>3.1976303194653002</v>
       </c>
     </row>
-    <row r="530" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
         <v>67</v>
       </c>
@@ -30948,7 +30951,7 @@
         <v>3.67745530832432</v>
       </c>
     </row>
-    <row r="531" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
         <v>67</v>
       </c>
@@ -30983,7 +30986,7 @@
         <v>3.5132972706609298</v>
       </c>
     </row>
-    <row r="532" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>67</v>
       </c>
@@ -31018,7 +31021,7 @@
         <v>2.9447736368077302</v>
       </c>
     </row>
-    <row r="533" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
         <v>67</v>
       </c>
@@ -31053,7 +31056,7 @@
         <v>3.0730287990155101</v>
       </c>
     </row>
-    <row r="534" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>67</v>
       </c>
@@ -31088,7 +31091,7 @@
         <v>2.6768533217524499</v>
       </c>
     </row>
-    <row r="535" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
         <v>67</v>
       </c>
@@ -31123,7 +31126,7 @@
         <v>3.7478596386577201</v>
       </c>
     </row>
-    <row r="536" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
         <v>67</v>
       </c>
@@ -31158,7 +31161,7 @@
         <v>3.0560811013842599</v>
       </c>
     </row>
-    <row r="537" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
         <v>67</v>
       </c>
@@ -31193,7 +31196,7 @@
         <v>2.6880420962324698</v>
       </c>
     </row>
-    <row r="538" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
         <v>70</v>
       </c>
@@ -31228,7 +31231,7 @@
         <v>3.43379217446217</v>
       </c>
     </row>
-    <row r="539" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
         <v>70</v>
       </c>
@@ -31263,7 +31266,7 @@
         <v>2.6019529060926199</v>
       </c>
     </row>
-    <row r="540" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
         <v>70</v>
       </c>
@@ -31298,7 +31301,7 @@
         <v>3.73374985748123</v>
       </c>
     </row>
-    <row r="541" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
         <v>70</v>
       </c>
@@ -31333,7 +31336,7 @@
         <v>3.17911163030782</v>
       </c>
     </row>
-    <row r="542" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>70</v>
       </c>
@@ -31368,7 +31371,7 @@
         <v>3.5934644741895401</v>
       </c>
     </row>
-    <row r="543" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
         <v>70</v>
       </c>
@@ -31403,7 +31406,7 @@
         <v>3.01274421190598</v>
       </c>
     </row>
-    <row r="544" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
         <v>70</v>
       </c>
@@ -31438,7 +31441,7 @@
         <v>3.3240291917837301</v>
       </c>
     </row>
-    <row r="545" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
         <v>50</v>
       </c>
@@ -31473,7 +31476,7 @@
         <v>3.1385118024359899</v>
       </c>
     </row>
-    <row r="546" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
         <v>50</v>
       </c>
@@ -31508,7 +31511,7 @@
         <v>3.0058056686475698</v>
       </c>
     </row>
-    <row r="547" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
         <v>50</v>
       </c>
@@ -31543,7 +31546,7 @@
         <v>3.1799680052057302</v>
       </c>
     </row>
-    <row r="548" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>50</v>
       </c>
@@ -31578,7 +31581,7 @@
         <v>3.6170411716071502</v>
       </c>
     </row>
-    <row r="549" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>50</v>
       </c>
@@ -31613,7 +31616,7 @@
         <v>2.9484826115913498</v>
       </c>
     </row>
-    <row r="550" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>50</v>
       </c>
@@ -31648,7 +31651,7 @@
         <v>3.3025935510557001</v>
       </c>
     </row>
-    <row r="551" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>48</v>
       </c>
@@ -31683,7 +31686,7 @@
         <v>3.49762939221824</v>
       </c>
     </row>
-    <row r="552" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>48</v>
       </c>
@@ -31718,7 +31721,7 @@
         <v>3.3724300436673</v>
       </c>
     </row>
-    <row r="553" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
         <v>48</v>
       </c>
@@ -31753,7 +31756,7 @@
         <v>3.52699997139838</v>
       </c>
     </row>
-    <row r="554" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>48</v>
       </c>
@@ -31788,7 +31791,7 @@
         <v>3.5267624517244198</v>
       </c>
     </row>
-    <row r="555" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
         <v>48</v>
       </c>
@@ -31823,7 +31826,7 @@
         <v>3.3215545015388401</v>
       </c>
     </row>
-    <row r="556" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
         <v>48</v>
       </c>
@@ -31858,7 +31861,7 @@
         <v>3.34211455640814</v>
       </c>
     </row>
-    <row r="557" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
         <v>46</v>
       </c>
@@ -31893,7 +31896,7 @@
         <v>3.3960908656242399</v>
       </c>
     </row>
-    <row r="558" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>46</v>
       </c>
@@ -31928,7 +31931,7 @@
         <v>3.5324579788680199</v>
       </c>
     </row>
-    <row r="559" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
         <v>46</v>
       </c>
@@ -31963,7 +31966,7 @@
         <v>3.5055769086161801</v>
       </c>
     </row>
-    <row r="560" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>46</v>
       </c>
@@ -31998,7 +32001,7 @@
         <v>3.5318640609821399</v>
       </c>
     </row>
-    <row r="561" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
         <v>46</v>
       </c>
@@ -32033,7 +32036,7 @@
         <v>4.0097435259791201</v>
       </c>
     </row>
-    <row r="562" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>46</v>
       </c>
@@ -32068,7 +32071,7 @@
         <v>3.7007861384003302</v>
       </c>
     </row>
-    <row r="563" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>46</v>
       </c>
@@ -32103,7 +32106,7 @@
         <v>3.42253516321618</v>
       </c>
     </row>
-    <row r="564" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>46</v>
       </c>
@@ -32138,7 +32141,7 @@
         <v>3.5987139200664799</v>
       </c>
     </row>
-    <row r="565" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
         <v>105</v>
       </c>
@@ -32173,7 +32176,7 @@
         <v>2.22353825296707</v>
       </c>
     </row>
-    <row r="566" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>105</v>
       </c>
@@ -32208,7 +32211,7 @@
         <v>2.0921897293520701</v>
       </c>
     </row>
-    <row r="567" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
         <v>105</v>
       </c>
@@ -32243,7 +32246,7 @@
         <v>1.7571356892830301</v>
       </c>
     </row>
-    <row r="568" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
         <v>105</v>
       </c>
@@ -32278,7 +32281,7 @@
         <v>2.1816536400840398</v>
       </c>
     </row>
-    <row r="569" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
         <v>105</v>
       </c>
@@ -32313,7 +32316,7 @@
         <v>2.3764081524676</v>
       </c>
     </row>
-    <row r="570" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
         <v>105</v>
       </c>
@@ -32348,7 +32351,7 @@
         <v>2.2540622781909101</v>
       </c>
     </row>
-    <row r="571" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
         <v>103</v>
       </c>
@@ -32383,7 +32386,7 @@
         <v>2.0522050830784599</v>
       </c>
     </row>
-    <row r="572" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
         <v>103</v>
       </c>
@@ -32418,7 +32421,7 @@
         <v>2.43071170089569</v>
       </c>
     </row>
-    <row r="573" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
         <v>103</v>
       </c>
@@ -32453,7 +32456,7 @@
         <v>1.9010561167762601</v>
       </c>
     </row>
-    <row r="574" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>103</v>
       </c>
@@ -32488,7 +32491,7 @@
         <v>1.9652818811769901</v>
       </c>
     </row>
-    <row r="575" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
         <v>103</v>
       </c>
@@ -32523,7 +32526,7 @@
         <v>2.4268068574436801</v>
       </c>
     </row>
-    <row r="576" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>103</v>
       </c>
@@ -32558,7 +32561,7 @@
         <v>2.1752998012659601</v>
       </c>
     </row>
-    <row r="577" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
         <v>93</v>
       </c>
@@ -32593,7 +32596,7 @@
         <v>1.9785293018044501</v>
       </c>
     </row>
-    <row r="578" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
         <v>93</v>
       </c>
@@ -32628,7 +32631,7 @@
         <v>1.9291946605866299</v>
       </c>
     </row>
-    <row r="579" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
         <v>93</v>
       </c>
@@ -32663,7 +32666,7 @@
         <v>1.8515411376225399</v>
       </c>
     </row>
-    <row r="580" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
         <v>93</v>
       </c>
@@ -32698,7 +32701,7 @@
         <v>2.26123767097498</v>
       </c>
     </row>
-    <row r="581" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
         <v>93</v>
       </c>
@@ -32733,7 +32736,7 @@
         <v>2.00150671289826</v>
       </c>
     </row>
-    <row r="582" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
         <v>93</v>
       </c>
@@ -32768,7 +32771,7 @@
         <v>1.8639877729864001</v>
       </c>
     </row>
-    <row r="583" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
         <v>107</v>
       </c>
@@ -32803,7 +32806,7 @@
         <v>1.68525705050835</v>
       </c>
     </row>
-    <row r="584" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
         <v>107</v>
       </c>
@@ -32838,7 +32841,7 @@
         <v>1.71941295023909</v>
       </c>
     </row>
-    <row r="585" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
         <v>107</v>
       </c>
@@ -32873,7 +32876,7 @@
         <v>2.3056094072972</v>
       </c>
     </row>
-    <row r="586" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
         <v>107</v>
       </c>
@@ -32908,7 +32911,7 @@
         <v>2.0255185564536902</v>
       </c>
     </row>
-    <row r="587" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
         <v>107</v>
       </c>
@@ -32943,7 +32946,7 @@
         <v>1.9819640143427899</v>
       </c>
     </row>
-    <row r="588" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
         <v>107</v>
       </c>
@@ -32978,7 +32981,7 @@
         <v>1.8104396370050799</v>
       </c>
     </row>
-    <row r="589" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
         <v>110</v>
       </c>
@@ -33013,7 +33016,7 @@
         <v>2.8347845512175298</v>
       </c>
     </row>
-    <row r="590" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>110</v>
       </c>
@@ -33048,7 +33051,7 @@
         <v>2.3451408275589798</v>
       </c>
     </row>
-    <row r="591" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
         <v>110</v>
       </c>
@@ -33083,7 +33086,7 @@
         <v>2.1300605743450101</v>
       </c>
     </row>
-    <row r="592" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
         <v>110</v>
       </c>
@@ -33118,7 +33121,7 @@
         <v>2.5172698143877499</v>
       </c>
     </row>
-    <row r="593" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
         <v>110</v>
       </c>
@@ -33153,7 +33156,7 @@
         <v>2.24548972979672</v>
       </c>
     </row>
-    <row r="594" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>110</v>
       </c>
@@ -33188,7 +33191,7 @@
         <v>2.2666279210225899</v>
       </c>
     </row>
-    <row r="595" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>110</v>
       </c>
@@ -33223,7 +33226,7 @@
         <v>2.3761177900199302</v>
       </c>
     </row>
-    <row r="596" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>96</v>
       </c>
@@ -33258,7 +33261,7 @@
         <v>1.5585787803113</v>
       </c>
     </row>
-    <row r="597" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>96</v>
       </c>
@@ -33293,7 +33296,7 @@
         <v>1.66066882653121</v>
       </c>
     </row>
-    <row r="598" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>96</v>
       </c>
@@ -33328,7 +33331,7 @@
         <v>1.44855129383809</v>
       </c>
     </row>
-    <row r="599" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
         <v>96</v>
       </c>
@@ -33363,7 +33366,7 @@
         <v>1.60853865151798</v>
       </c>
     </row>
-    <row r="600" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>96</v>
       </c>
@@ -33398,7 +33401,7 @@
         <v>1.66609616107915</v>
       </c>
     </row>
-    <row r="601" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
         <v>96</v>
       </c>
@@ -33433,7 +33436,7 @@
         <v>1.64274422221498</v>
       </c>
     </row>
-    <row r="602" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>96</v>
       </c>
@@ -33468,7 +33471,7 @@
         <v>1.47618051420884</v>
       </c>
     </row>
-    <row r="603" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>42</v>
       </c>
@@ -33503,7 +33506,7 @@
         <v>3.7018175557128901</v>
       </c>
     </row>
-    <row r="604" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>42</v>
       </c>
@@ -33538,7 +33541,7 @@
         <v>3.5965485858448698</v>
       </c>
     </row>
-    <row r="605" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
         <v>42</v>
       </c>
@@ -33573,7 +33576,7 @@
         <v>3.0721788275947901</v>
       </c>
     </row>
-    <row r="606" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
         <v>42</v>
       </c>
@@ -33608,7 +33611,7 @@
         <v>3.0854390058238801</v>
       </c>
     </row>
-    <row r="607" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
         <v>42</v>
       </c>
@@ -33643,7 +33646,7 @@
         <v>3.3062277072695001</v>
       </c>
     </row>
-    <row r="608" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
         <v>42</v>
       </c>
@@ -33678,7 +33681,7 @@
         <v>3.4651923042818602</v>
       </c>
     </row>
-    <row r="609" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
         <v>42</v>
       </c>
@@ -33713,7 +33716,7 @@
         <v>3.63238909942489</v>
       </c>
     </row>
-    <row r="610" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>99</v>
       </c>
@@ -33748,7 +33751,7 @@
         <v>2.1496668523440201</v>
       </c>
     </row>
-    <row r="611" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
         <v>99</v>
       </c>
@@ -33783,7 +33786,7 @@
         <v>2.0741572978136</v>
       </c>
     </row>
-    <row r="612" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
         <v>99</v>
       </c>
@@ -33818,7 +33821,7 @@
         <v>1.7987635710226899</v>
       </c>
     </row>
-    <row r="613" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
         <v>99</v>
       </c>
@@ -33853,7 +33856,7 @@
         <v>1.8095592165816901</v>
       </c>
     </row>
-    <row r="614" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
         <v>99</v>
       </c>
@@ -33888,7 +33891,7 @@
         <v>2.3654631510039299</v>
       </c>
     </row>
-    <row r="615" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
         <v>99</v>
       </c>
@@ -33923,7 +33926,7 @@
         <v>1.7159363557382701</v>
       </c>
     </row>
-    <row r="616" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
         <v>99</v>
       </c>
@@ -33958,7 +33961,7 @@
         <v>1.8217024643483899</v>
       </c>
     </row>
-    <row r="617" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
         <v>99</v>
       </c>
@@ -33993,7 +33996,7 @@
         <v>1.9843767378530099</v>
       </c>
     </row>
-    <row r="618" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
         <v>44</v>
       </c>
@@ -34028,7 +34031,7 @@
         <v>3.4928346857510801</v>
       </c>
     </row>
-    <row r="619" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
         <v>44</v>
       </c>
@@ -34063,7 +34066,7 @@
         <v>4.1268167250348</v>
       </c>
     </row>
-    <row r="620" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
         <v>44</v>
       </c>
@@ -34098,7 +34101,7 @@
         <v>4.1053373581786703</v>
       </c>
     </row>
-    <row r="621" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
         <v>44</v>
       </c>
@@ -34133,7 +34136,7 @@
         <v>3.0845669723306601</v>
       </c>
     </row>
-    <row r="622" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>44</v>
       </c>
@@ -34168,7 +34171,7 @@
         <v>2.6910973526525699</v>
       </c>
     </row>
-    <row r="623" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
         <v>44</v>
       </c>
@@ -34203,7 +34206,7 @@
         <v>2.73957157858647</v>
       </c>
     </row>
-    <row r="624" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
         <v>44</v>
       </c>
@@ -34238,7 +34241,7 @@
         <v>3.6386148432887802</v>
       </c>
     </row>
-    <row r="625" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
         <v>44</v>
       </c>
@@ -34273,7 +34276,7 @@
         <v>3.7004471784909199</v>
       </c>
     </row>
-    <row r="626" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
         <v>72</v>
       </c>
@@ -34308,7 +34311,7 @@
         <v>2.5074416820335599</v>
       </c>
     </row>
-    <row r="627" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
         <v>72</v>
       </c>
@@ -34343,7 +34346,7 @@
         <v>2.6337743959358599</v>
       </c>
     </row>
-    <row r="628" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
         <v>72</v>
       </c>
@@ -34378,7 +34381,7 @@
         <v>2.3775747905596898</v>
       </c>
     </row>
-    <row r="629" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
         <v>72</v>
       </c>
@@ -34413,7 +34416,7 @@
         <v>2.78838002059226</v>
       </c>
     </row>
-    <row r="630" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
         <v>72</v>
       </c>
@@ -34448,7 +34451,7 @@
         <v>2.62569362525642</v>
       </c>
     </row>
-    <row r="631" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
         <v>72</v>
       </c>
@@ -34483,7 +34486,7 @@
         <v>2.6802124873219002</v>
       </c>
     </row>
-    <row r="632" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="1" t="s">
         <v>52</v>
       </c>
@@ -34518,7 +34521,7 @@
         <v>1.85311008021968</v>
       </c>
     </row>
-    <row r="633" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
         <v>52</v>
       </c>
@@ -34553,7 +34556,7 @@
         <v>1.7606250585066301</v>
       </c>
     </row>
-    <row r="634" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
         <v>52</v>
       </c>
@@ -34588,7 +34591,7 @@
         <v>1.78905105350189</v>
       </c>
     </row>
-    <row r="635" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
         <v>52</v>
       </c>
@@ -34623,7 +34626,7 @@
         <v>1.6998227179485099</v>
       </c>
     </row>
-    <row r="636" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
         <v>52</v>
       </c>
@@ -34658,7 +34661,7 @@
         <v>3.31013247649526</v>
       </c>
     </row>
-    <row r="637" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="1" t="s">
         <v>52</v>
       </c>
@@ -34693,7 +34696,7 @@
         <v>3.4104018564521601</v>
       </c>
     </row>
-    <row r="638" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
         <v>34</v>
       </c>
@@ -34728,7 +34731,7 @@
         <v>2.8045568156465999</v>
       </c>
     </row>
-    <row r="639" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="s">
         <v>34</v>
       </c>
@@ -34763,7 +34766,7 @@
         <v>2.7042985128594199</v>
       </c>
     </row>
-    <row r="640" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
         <v>34</v>
       </c>
@@ -34798,7 +34801,7 @@
         <v>2.7716166392205102</v>
       </c>
     </row>
-    <row r="641" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
         <v>34</v>
       </c>
@@ -34833,7 +34836,7 @@
         <v>2.9357673873038501</v>
       </c>
     </row>
-    <row r="642" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
         <v>34</v>
       </c>
@@ -34868,7 +34871,7 @@
         <v>2.60433660330132</v>
       </c>
     </row>
-    <row r="643" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
         <v>34</v>
       </c>
@@ -34903,7 +34906,7 @@
         <v>2.5744747647483002</v>
       </c>
     </row>
-    <row r="644" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
         <v>34</v>
       </c>
@@ -34938,7 +34941,7 @@
         <v>3.3774505771523202</v>
       </c>
     </row>
-    <row r="645" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="1" t="s">
         <v>55</v>
       </c>
@@ -34973,7 +34976,7 @@
         <v>1.5778153516233999</v>
       </c>
     </row>
-    <row r="646" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="1" t="s">
         <v>55</v>
       </c>
@@ -35008,7 +35011,7 @@
         <v>1.92281956075556</v>
       </c>
     </row>
-    <row r="647" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
         <v>55</v>
       </c>
@@ -35043,7 +35046,7 @@
         <v>2.31558453611889</v>
       </c>
     </row>
-    <row r="648" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
         <v>55</v>
       </c>
@@ -35078,7 +35081,7 @@
         <v>1.5527665183917601</v>
       </c>
     </row>
-    <row r="649" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
         <v>55</v>
       </c>
@@ -35113,7 +35116,7 @@
         <v>1.8131894521073799</v>
       </c>
     </row>
-    <row r="650" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
         <v>55</v>
       </c>
@@ -35148,7 +35151,7 @@
         <v>1.5526119702287</v>
       </c>
     </row>
-    <row r="651" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="1" t="s">
         <v>64</v>
       </c>
@@ -35183,7 +35186,7 @@
         <v>2.3376749338448701</v>
       </c>
     </row>
-    <row r="652" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
         <v>64</v>
       </c>
@@ -35218,7 +35221,7 @@
         <v>2.2075116625043898</v>
       </c>
     </row>
-    <row r="653" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
         <v>64</v>
       </c>
@@ -35253,7 +35256,7 @@
         <v>2.3235328477575501</v>
       </c>
     </row>
-    <row r="654" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
         <v>64</v>
       </c>
@@ -35288,7 +35291,7 @@
         <v>2.5273231905682998</v>
       </c>
     </row>
-    <row r="655" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
         <v>64</v>
       </c>
@@ -35323,7 +35326,7 @@
         <v>2.8040266726774599</v>
       </c>
     </row>
-    <row r="656" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="1" t="s">
         <v>64</v>
       </c>
@@ -35358,7 +35361,7 @@
         <v>2.3730881868925802</v>
       </c>
     </row>
-    <row r="657" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="1" t="s">
         <v>64</v>
       </c>
@@ -35393,7 +35396,7 @@
         <v>2.6169257219216999</v>
       </c>
     </row>
-    <row r="658" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
         <v>58</v>
       </c>
@@ -35428,7 +35431,7 @@
         <v>2.2992142395011701</v>
       </c>
     </row>
-    <row r="659" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
         <v>58</v>
       </c>
@@ -35463,7 +35466,7 @@
         <v>2.21240071937995</v>
       </c>
     </row>
-    <row r="660" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="1" t="s">
         <v>58</v>
       </c>
@@ -35498,7 +35501,7 @@
         <v>1.95729633514236</v>
       </c>
     </row>
-    <row r="661" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="1" t="s">
         <v>58</v>
       </c>
@@ -35533,7 +35536,7 @@
         <v>1.92920398026065</v>
       </c>
     </row>
-    <row r="662" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="1" t="s">
         <v>58</v>
       </c>
@@ -35568,7 +35571,7 @@
         <v>1.8459713391777599</v>
       </c>
     </row>
-    <row r="663" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
         <v>58</v>
       </c>
@@ -35603,7 +35606,7 @@
         <v>1.7605203372535501</v>
       </c>
     </row>
-    <row r="664" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="1" t="s">
         <v>38</v>
       </c>
@@ -35638,7 +35641,7 @@
         <v>2.89041833427039</v>
       </c>
     </row>
-    <row r="665" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="1" t="s">
         <v>38</v>
       </c>
@@ -35673,7 +35676,7 @@
         <v>2.3975379723547099</v>
       </c>
     </row>
-    <row r="666" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="1" t="s">
         <v>38</v>
       </c>
@@ -35708,7 +35711,7 @@
         <v>2.4059329389699702</v>
       </c>
     </row>
-    <row r="667" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="1" t="s">
         <v>38</v>
       </c>
@@ -35743,7 +35746,7 @@
         <v>2.4432178543330401</v>
       </c>
     </row>
-    <row r="668" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="1" t="s">
         <v>38</v>
       </c>
@@ -35778,7 +35781,7 @@
         <v>2.5863835491374498</v>
       </c>
     </row>
-    <row r="669" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="1" t="s">
         <v>38</v>
       </c>
@@ -35813,7 +35816,7 @@
         <v>3.3775413216193999</v>
       </c>
     </row>
-    <row r="670" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="1" t="s">
         <v>38</v>
       </c>
@@ -35848,7 +35851,7 @@
         <v>2.84315594698089</v>
       </c>
     </row>
-    <row r="671" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
         <v>38</v>
       </c>
@@ -35883,7 +35886,7 @@
         <v>2.7250096481626702</v>
       </c>
     </row>
-    <row r="672" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="1" t="s">
         <v>61</v>
       </c>
@@ -35918,7 +35921,7 @@
         <v>2.3382208282774299</v>
       </c>
     </row>
-    <row r="673" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="1" t="s">
         <v>61</v>
       </c>
@@ -35953,7 +35956,7 @@
         <v>1.86257098140194</v>
       </c>
     </row>
-    <row r="674" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="1" t="s">
         <v>61</v>
       </c>
@@ -35988,7 +35991,7 @@
         <v>1.63403729358477</v>
       </c>
     </row>
-    <row r="675" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="1" t="s">
         <v>61</v>
       </c>
@@ -36023,7 +36026,7 @@
         <v>2.4830848159985499</v>
       </c>
     </row>
-    <row r="676" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="1" t="s">
         <v>61</v>
       </c>
@@ -36058,7 +36061,7 @@
         <v>2.8376269570548698</v>
       </c>
     </row>
-    <row r="677" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="1" t="s">
         <v>61</v>
       </c>
@@ -36093,7 +36096,7 @@
         <v>2.1161417928073201</v>
       </c>
     </row>
-    <row r="678" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="1" t="s">
         <v>40</v>
       </c>
@@ -36128,7 +36131,7 @@
         <v>2.9728841674692701</v>
       </c>
     </row>
-    <row r="679" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="1" t="s">
         <v>40</v>
       </c>
@@ -36163,7 +36166,7 @@
         <v>2.4993298704357798</v>
       </c>
     </row>
-    <row r="680" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="1" t="s">
         <v>40</v>
       </c>
@@ -36198,7 +36201,7 @@
         <v>1.9904524787526101</v>
       </c>
     </row>
-    <row r="681" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="1" t="s">
         <v>40</v>
       </c>
@@ -36233,7 +36236,7 @@
         <v>2.19520885308307</v>
       </c>
     </row>
-    <row r="682" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="1" t="s">
         <v>40</v>
       </c>
@@ -36268,7 +36271,7 @@
         <v>2.6457010405825101</v>
       </c>
     </row>
-    <row r="683" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="1" t="s">
         <v>40</v>
       </c>
@@ -36303,7 +36306,7 @@
         <v>2.4960111102526099</v>
       </c>
     </row>
-    <row r="684" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="1" t="s">
         <v>40</v>
       </c>
@@ -36338,7 +36341,7 @@
         <v>2.54049809201917</v>
       </c>
     </row>
-    <row r="685" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="1" t="s">
         <v>67</v>
       </c>
@@ -36373,7 +36376,7 @@
         <v>2.5050886563247801</v>
       </c>
     </row>
-    <row r="686" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="1" t="s">
         <v>67</v>
       </c>
@@ -36408,7 +36411,7 @@
         <v>2.9686664852159002</v>
       </c>
     </row>
-    <row r="687" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="1" t="s">
         <v>67</v>
       </c>
@@ -36443,7 +36446,7 @@
         <v>2.9719761053734501</v>
       </c>
     </row>
-    <row r="688" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="1" t="s">
         <v>67</v>
       </c>
@@ -36478,7 +36481,7 @@
         <v>2.31786958251383</v>
       </c>
     </row>
-    <row r="689" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="1" t="s">
         <v>67</v>
       </c>
@@ -36513,7 +36516,7 @@
         <v>2.4776572087283499</v>
       </c>
     </row>
-    <row r="690" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="1" t="s">
         <v>67</v>
       </c>
@@ -36548,7 +36551,7 @@
         <v>2.1304157190768702</v>
       </c>
     </row>
-    <row r="691" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="1" t="s">
         <v>67</v>
       </c>
@@ -36583,7 +36586,7 @@
         <v>3.1401880359144698</v>
       </c>
     </row>
-    <row r="692" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="1" t="s">
         <v>67</v>
       </c>
@@ -36618,7 +36621,7 @@
         <v>2.4270708966864598</v>
       </c>
     </row>
-    <row r="693" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="1" t="s">
         <v>67</v>
       </c>
@@ -36653,7 +36656,7 @@
         <v>2.1395283865376999</v>
       </c>
     </row>
-    <row r="694" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="1" t="s">
         <v>70</v>
       </c>
@@ -36688,7 +36691,7 @@
         <v>2.6396702335554498</v>
       </c>
     </row>
-    <row r="695" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="1" t="s">
         <v>70</v>
       </c>
@@ -36723,7 +36726,7 @@
         <v>1.8869914464463799</v>
       </c>
     </row>
-    <row r="696" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="1" t="s">
         <v>70</v>
       </c>
@@ -36758,7 +36761,7 @@
         <v>2.8838629158525202</v>
       </c>
     </row>
-    <row r="697" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="1" t="s">
         <v>70</v>
       </c>
@@ -36793,7 +36796,7 @@
         <v>2.4229030057748799</v>
       </c>
     </row>
-    <row r="698" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="1" t="s">
         <v>70</v>
       </c>
@@ -36828,7 +36831,7 @@
         <v>2.5305646784825502</v>
       </c>
     </row>
-    <row r="699" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="1" t="s">
         <v>70</v>
       </c>
@@ -36863,7 +36866,7 @@
         <v>2.2437130917899002</v>
       </c>
     </row>
-    <row r="700" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="1" t="s">
         <v>70</v>
       </c>
@@ -36898,7 +36901,7 @@
         <v>2.6040621846180301</v>
       </c>
     </row>
-    <row r="701" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="1" t="s">
         <v>50</v>
       </c>
@@ -36933,7 +36936,7 @@
         <v>2.5609382359435999</v>
       </c>
     </row>
-    <row r="702" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="1" t="s">
         <v>50</v>
       </c>
@@ -36968,7 +36971,7 @@
         <v>2.4063055516924901</v>
       </c>
     </row>
-    <row r="703" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="1" t="s">
         <v>50</v>
       </c>
@@ -37003,7 +37006,7 @@
         <v>2.5854143574285402</v>
       </c>
     </row>
-    <row r="704" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="1" t="s">
         <v>50</v>
       </c>
@@ -37038,7 +37041,7 @@
         <v>2.9571084186457401</v>
       </c>
     </row>
-    <row r="705" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="1" t="s">
         <v>50</v>
       </c>
@@ -37073,7 +37076,7 @@
         <v>2.3108327964458799</v>
       </c>
     </row>
-    <row r="706" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="1" t="s">
         <v>50</v>
       </c>
@@ -37108,7 +37111,7 @@
         <v>2.6682364509057801</v>
       </c>
     </row>
-    <row r="707" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="1" t="s">
         <v>48</v>
       </c>
@@ -37143,7 +37146,7 @@
         <v>2.9300178385332498</v>
       </c>
     </row>
-    <row r="708" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="1" t="s">
         <v>48</v>
       </c>
@@ -37178,7 +37181,7 @@
         <v>2.8539787959688501</v>
       </c>
     </row>
-    <row r="709" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="1" t="s">
         <v>48</v>
       </c>
@@ -37213,7 +37216,7 @@
         <v>2.8970876946741102</v>
       </c>
     </row>
-    <row r="710" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="1" t="s">
         <v>48</v>
       </c>
@@ -37248,7 +37251,7 @@
         <v>2.9361278138411602</v>
       </c>
     </row>
-    <row r="711" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="1" t="s">
         <v>48</v>
       </c>
@@ -37283,7 +37286,7 @@
         <v>2.6669385539767498</v>
       </c>
     </row>
-    <row r="712" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="1" t="s">
         <v>48</v>
       </c>
@@ -37318,7 +37321,7 @@
         <v>2.8278820645414902</v>
       </c>
     </row>
-    <row r="713" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="1" t="s">
         <v>46</v>
       </c>
@@ -37353,7 +37356,7 @@
         <v>2.7524444537716</v>
       </c>
     </row>
-    <row r="714" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="1" t="s">
         <v>46</v>
       </c>
@@ -37388,7 +37391,7 @@
         <v>2.75914992871984</v>
       </c>
     </row>
-    <row r="715" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="1" t="s">
         <v>46</v>
       </c>
@@ -37423,7 +37426,7 @@
         <v>2.7633789102013799</v>
       </c>
     </row>
-    <row r="716" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="1" t="s">
         <v>46</v>
       </c>
@@ -37458,7 +37461,7 @@
         <v>2.8010664386766302</v>
       </c>
     </row>
-    <row r="717" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="1" t="s">
         <v>46</v>
       </c>
@@ -37493,7 +37496,7 @@
         <v>3.2062942128684302</v>
       </c>
     </row>
-    <row r="718" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="1" t="s">
         <v>46</v>
       </c>
@@ -37528,7 +37531,7 @@
         <v>3.0427683071021998</v>
       </c>
     </row>
-    <row r="719" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="1" t="s">
         <v>46</v>
       </c>
@@ -37563,7 +37566,7 @@
         <v>2.7783197348309101</v>
       </c>
     </row>
-    <row r="720" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="1" t="s">
         <v>46</v>
       </c>
@@ -37598,7 +37601,7 @@
         <v>2.84509659241612</v>
       </c>
     </row>
-    <row r="721" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="1" t="s">
         <v>105</v>
       </c>
@@ -37633,7 +37636,7 @@
         <v>1.61005275516844</v>
       </c>
     </row>
-    <row r="722" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="1" t="s">
         <v>105</v>
       </c>
@@ -37668,7 +37671,7 @@
         <v>1.57102267992727</v>
       </c>
     </row>
-    <row r="723" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="1" t="s">
         <v>105</v>
       </c>
@@ -37703,7 +37706,7 @@
         <v>1.2805654244423901</v>
       </c>
     </row>
-    <row r="724" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="1" t="s">
         <v>105</v>
       </c>
@@ -37738,7 +37741,7 @@
         <v>1.59299416171931</v>
       </c>
     </row>
-    <row r="725" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="1" t="s">
         <v>105</v>
       </c>
@@ -37773,7 +37776,7 @@
         <v>1.6557384149602601</v>
       </c>
     </row>
-    <row r="726" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="1" t="s">
         <v>105</v>
       </c>
@@ -37808,7 +37811,7 @@
         <v>1.5811877641672301</v>
       </c>
     </row>
-    <row r="727" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="1" t="s">
         <v>103</v>
       </c>
@@ -37843,7 +37846,7 @@
         <v>1.5260483994799099</v>
       </c>
     </row>
-    <row r="728" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="1" t="s">
         <v>103</v>
       </c>
@@ -37878,7 +37881,7 @@
         <v>1.90017842463715</v>
       </c>
     </row>
-    <row r="729" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="1" t="s">
         <v>103</v>
       </c>
@@ -37913,7 +37916,7 @@
         <v>1.3763216222561501</v>
       </c>
     </row>
-    <row r="730" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="1" t="s">
         <v>103</v>
       </c>
@@ -37948,7 +37951,7 @@
         <v>1.4585175487617501</v>
       </c>
     </row>
-    <row r="731" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="1" t="s">
         <v>103</v>
       </c>
@@ -37983,7 +37986,7 @@
         <v>1.79318700105833</v>
       </c>
     </row>
-    <row r="732" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="1" t="s">
         <v>103</v>
       </c>
@@ -38018,7 +38021,7 @@
         <v>1.6426869257882499</v>
       </c>
     </row>
-    <row r="733" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="1" t="s">
         <v>93</v>
       </c>
@@ -38053,7 +38056,7 @@
         <v>1.48792107292652</v>
       </c>
     </row>
-    <row r="734" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="1" t="s">
         <v>93</v>
       </c>
@@ -38088,7 +38091,7 @@
         <v>1.51846558411426</v>
       </c>
     </row>
-    <row r="735" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="1" t="s">
         <v>93</v>
       </c>
@@ -38123,7 +38126,7 @@
         <v>1.4368910537708199</v>
       </c>
     </row>
-    <row r="736" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="1" t="s">
         <v>93</v>
       </c>
@@ -38158,7 +38161,7 @@
         <v>1.7797760040203501</v>
       </c>
     </row>
-    <row r="737" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="1" t="s">
         <v>93</v>
       </c>
@@ -38193,7 +38196,7 @@
         <v>1.5608723122971999</v>
       </c>
     </row>
-    <row r="738" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="1" t="s">
         <v>93</v>
       </c>
@@ -38228,7 +38231,7 @@
         <v>1.40598201675159</v>
       </c>
     </row>
-    <row r="739" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="1" t="s">
         <v>107</v>
       </c>
@@ -38263,7 +38266,7 @@
         <v>1.1953959133724199</v>
       </c>
     </row>
-    <row r="740" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="1" t="s">
         <v>107</v>
       </c>
@@ -38298,7 +38301,7 @@
         <v>1.23043279241083</v>
       </c>
     </row>
-    <row r="741" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="1" t="s">
         <v>107</v>
       </c>
@@ -38333,7 +38336,7 @@
         <v>1.58673507499997</v>
       </c>
     </row>
-    <row r="742" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="1" t="s">
         <v>107</v>
       </c>
@@ -38368,7 +38371,7 @@
         <v>1.4560752413925599</v>
       </c>
     </row>
-    <row r="743" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="1" t="s">
         <v>107</v>
       </c>
@@ -38403,7 +38406,7 @@
         <v>1.4101852678134501</v>
       </c>
     </row>
-    <row r="744" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="1" t="s">
         <v>107</v>
       </c>
@@ -38438,7 +38441,7 @@
         <v>1.2941230326551001</v>
       </c>
     </row>
-    <row r="745" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="1" t="s">
         <v>110</v>
       </c>
@@ -38473,7 +38476,7 @@
         <v>2.1308359441070102</v>
       </c>
     </row>
-    <row r="746" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="1" t="s">
         <v>110</v>
       </c>
@@ -38508,7 +38511,7 @@
         <v>1.8796242687890501</v>
       </c>
     </row>
-    <row r="747" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="1" t="s">
         <v>110</v>
       </c>
@@ -38543,7 +38546,7 @@
         <v>1.6942796450051101</v>
       </c>
     </row>
-    <row r="748" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="1" t="s">
         <v>110</v>
       </c>
@@ -38578,7 +38581,7 @@
         <v>1.9531166445863799</v>
       </c>
     </row>
-    <row r="749" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="1" t="s">
         <v>110</v>
       </c>
@@ -38613,7 +38616,7 @@
         <v>1.77749281675658</v>
       </c>
     </row>
-    <row r="750" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="1" t="s">
         <v>110</v>
       </c>
@@ -38648,7 +38651,7 @@
         <v>1.8017824674892899</v>
       </c>
     </row>
-    <row r="751" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="1" t="s">
         <v>110</v>
       </c>
@@ -38683,7 +38686,7 @@
         <v>1.7868764092723799</v>
       </c>
     </row>
-    <row r="752" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="1" t="s">
         <v>96</v>
       </c>
@@ -38718,7 +38721,7 @@
         <v>1.17610956432405</v>
       </c>
     </row>
-    <row r="753" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="1" t="s">
         <v>96</v>
       </c>
@@ -38753,7 +38756,7 @@
         <v>1.2800282991519401</v>
       </c>
     </row>
-    <row r="754" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="1" t="s">
         <v>96</v>
       </c>
@@ -38788,7 +38791,7 @@
         <v>1.1081677935377401</v>
       </c>
     </row>
-    <row r="755" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="1" t="s">
         <v>96</v>
       </c>
@@ -38823,7 +38826,7 @@
         <v>1.2440094410932601</v>
       </c>
     </row>
-    <row r="756" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="1" t="s">
         <v>96</v>
       </c>
@@ -38858,7 +38861,7 @@
         <v>1.2969906525771699</v>
       </c>
     </row>
-    <row r="757" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="1" t="s">
         <v>96</v>
       </c>
@@ -38893,7 +38896,7 @@
         <v>1.2688726953959699</v>
       </c>
     </row>
-    <row r="758" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="1" t="s">
         <v>96</v>
       </c>
@@ -38928,7 +38931,7 @@
         <v>1.1123571459566199</v>
       </c>
     </row>
-    <row r="759" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="1" t="s">
         <v>42</v>
       </c>
@@ -38963,7 +38966,7 @@
         <v>2.99203270337452</v>
       </c>
     </row>
-    <row r="760" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="1" t="s">
         <v>42</v>
       </c>
@@ -38998,7 +39001,7 @@
         <v>2.92806819795483</v>
       </c>
     </row>
-    <row r="761" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="1" t="s">
         <v>42</v>
       </c>
@@ -39033,7 +39036,7 @@
         <v>2.4288270265180998</v>
       </c>
     </row>
-    <row r="762" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="1" t="s">
         <v>42</v>
       </c>
@@ -39068,7 +39071,7 @@
         <v>2.47064431340285</v>
       </c>
     </row>
-    <row r="763" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="1" t="s">
         <v>42</v>
       </c>
@@ -39103,7 +39106,7 @@
         <v>2.65098104553174</v>
       </c>
     </row>
-    <row r="764" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="1" t="s">
         <v>42</v>
       </c>
@@ -39138,7 +39141,7 @@
         <v>2.8128924180897901</v>
       </c>
     </row>
-    <row r="765" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="1" t="s">
         <v>42</v>
       </c>
@@ -39173,7 +39176,7 @@
         <v>2.9251451446512999</v>
       </c>
     </row>
-    <row r="766" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="1" t="s">
         <v>99</v>
       </c>
@@ -39208,7 +39211,7 @@
         <v>1.6301447411854399</v>
       </c>
     </row>
-    <row r="767" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="1" t="s">
         <v>99</v>
       </c>
@@ -39243,7 +39246,7 @@
         <v>1.5242688941446501</v>
       </c>
     </row>
-    <row r="768" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="1" t="s">
         <v>99</v>
       </c>
@@ -39278,7 +39281,7 @@
         <v>1.33664107287617</v>
       </c>
     </row>
-    <row r="769" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="1" t="s">
         <v>99</v>
       </c>
@@ -39313,7 +39316,7 @@
         <v>1.3249131295343599</v>
       </c>
     </row>
-    <row r="770" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="1" t="s">
         <v>99</v>
       </c>
@@ -39348,7 +39351,7 @@
         <v>1.74692627412613</v>
       </c>
     </row>
-    <row r="771" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="1" t="s">
         <v>99</v>
       </c>
@@ -39383,7 +39386,7 @@
         <v>1.2919134146817499</v>
       </c>
     </row>
-    <row r="772" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="1" t="s">
         <v>99</v>
       </c>
@@ -39418,7 +39421,7 @@
         <v>1.33980285779143</v>
       </c>
     </row>
-    <row r="773" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="1" t="s">
         <v>99</v>
       </c>
@@ -39453,7 +39456,7 @@
         <v>1.44898172747423</v>
       </c>
     </row>
-    <row r="774" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="1" t="s">
         <v>44</v>
       </c>
@@ -39488,7 +39491,7 @@
         <v>2.80681574948045</v>
       </c>
     </row>
-    <row r="775" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="1" t="s">
         <v>44</v>
       </c>
@@ -39523,7 +39526,7 @@
         <v>3.2848464019488901</v>
       </c>
     </row>
-    <row r="776" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="1" t="s">
         <v>44</v>
       </c>
@@ -39558,7 +39561,7 @@
         <v>3.3198247533421101</v>
       </c>
     </row>
-    <row r="777" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="1" t="s">
         <v>44</v>
       </c>
@@ -39593,7 +39596,7 @@
         <v>2.3791985774264601</v>
       </c>
     </row>
-    <row r="778" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="1" t="s">
         <v>44</v>
       </c>
@@ -39628,7 +39631,7 @@
         <v>2.0776364688288198</v>
       </c>
     </row>
-    <row r="779" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="1" t="s">
         <v>44</v>
       </c>
@@ -39663,7 +39666,7 @@
         <v>2.13943568763007</v>
       </c>
     </row>
-    <row r="780" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="1" t="s">
         <v>44</v>
       </c>
@@ -39698,7 +39701,7 @@
         <v>2.83532376818042</v>
       </c>
     </row>
-    <row r="781" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="1" t="s">
         <v>44</v>
       </c>
@@ -39733,11 +39736,2013 @@
         <v>2.9997286020813898</v>
       </c>
     </row>
+    <row r="782" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A782" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C782" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D782" s="1">
+        <v>0</v>
+      </c>
+      <c r="E782" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F782" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G782" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H782" s="1">
+        <v>64586</v>
+      </c>
+      <c r="I782">
+        <v>1096</v>
+      </c>
+      <c r="J782">
+        <v>0.53025205520455898</v>
+      </c>
+      <c r="K782">
+        <v>2.1871126844311002</v>
+      </c>
+    </row>
+    <row r="783" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A783" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C783" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D783" s="1">
+        <v>0</v>
+      </c>
+      <c r="E783" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F783" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G783" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H783" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I783">
+        <v>924</v>
+      </c>
+      <c r="J783">
+        <v>0.57903781680019895</v>
+      </c>
+      <c r="K783">
+        <v>2.2489149016944801</v>
+      </c>
+    </row>
+    <row r="784" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A784" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B784" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C784" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D784" s="1">
+        <v>0</v>
+      </c>
+      <c r="E784" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F784" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G784" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H784" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I784">
+        <v>818</v>
+      </c>
+      <c r="J784">
+        <v>0.57241620635764401</v>
+      </c>
+      <c r="K784">
+        <v>2.3754395392555199</v>
+      </c>
+    </row>
+    <row r="785" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A785" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B785" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C785" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D785" s="1">
+        <v>0</v>
+      </c>
+      <c r="E785" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F785" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G785" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H785" s="1">
+        <v>55757</v>
+      </c>
+      <c r="I785">
+        <v>684</v>
+      </c>
+      <c r="J785">
+        <v>0.53999597744153804</v>
+      </c>
+      <c r="K785">
+        <v>2.4696956949100399</v>
+      </c>
+    </row>
+    <row r="786" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A786" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B786" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C786" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D786" s="1">
+        <v>0</v>
+      </c>
+      <c r="E786" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F786" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G786" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H786" s="1">
+        <v>65164</v>
+      </c>
+      <c r="I786">
+        <v>1046</v>
+      </c>
+      <c r="J786">
+        <v>0.55598685866988595</v>
+      </c>
+      <c r="K786">
+        <v>2.1285933043126</v>
+      </c>
+    </row>
+    <row r="787" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A787" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B787" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C787" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D787" s="1">
+        <v>0</v>
+      </c>
+      <c r="E787" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F787" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G787" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H787" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I787">
+        <v>908</v>
+      </c>
+      <c r="J787">
+        <v>0.563987653584202</v>
+      </c>
+      <c r="K787">
+        <v>2.3819014339461502</v>
+      </c>
+    </row>
+    <row r="788" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A788" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C788" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D788" s="1">
+        <v>0</v>
+      </c>
+      <c r="E788" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F788" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G788" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H788" s="1">
+        <v>60903</v>
+      </c>
+      <c r="I788" s="1">
+        <v>580</v>
+      </c>
+      <c r="J788" s="1">
+        <v>0.63296688486149499</v>
+      </c>
+      <c r="K788">
+        <v>3.1840708345884399</v>
+      </c>
+    </row>
+    <row r="789" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A789" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B789" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C789" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D789" s="1">
+        <v>0</v>
+      </c>
+      <c r="E789" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F789" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G789" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H789" s="10">
+        <v>64764</v>
+      </c>
+      <c r="I789">
+        <v>899</v>
+      </c>
+      <c r="J789">
+        <v>0.59697580567997399</v>
+      </c>
+      <c r="K789">
+        <v>2.26306021984198</v>
+      </c>
+    </row>
+    <row r="790" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A790" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B790" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C790" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D790" s="1">
+        <v>0</v>
+      </c>
+      <c r="E790" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F790" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G790" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="H790" s="10">
+        <v>66063</v>
+      </c>
+      <c r="I790">
+        <v>1028</v>
+      </c>
+      <c r="J790">
+        <v>0.60928579081980105</v>
+      </c>
+      <c r="K790">
+        <v>2.02733032669114</v>
+      </c>
+    </row>
+    <row r="791" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A791" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B791" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C791" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D791" s="1">
+        <v>0</v>
+      </c>
+      <c r="E791" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F791" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G791" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="H791" s="10">
+        <v>66063</v>
+      </c>
+      <c r="I791">
+        <v>884</v>
+      </c>
+      <c r="J791">
+        <v>0.61659065813780001</v>
+      </c>
+      <c r="K791">
+        <v>2.0876622097673798</v>
+      </c>
+    </row>
+    <row r="792" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A792" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B792" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C792" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D792" s="1">
+        <v>0</v>
+      </c>
+      <c r="E792" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F792" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G792" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="H792" s="10">
+        <v>66063</v>
+      </c>
+      <c r="I792">
+        <v>871</v>
+      </c>
+      <c r="J792">
+        <v>0.61114142357197099</v>
+      </c>
+      <c r="K792">
+        <v>2.0939660255274899</v>
+      </c>
+    </row>
+    <row r="793" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A793" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B793" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C793" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D793" s="1">
+        <v>0</v>
+      </c>
+      <c r="E793" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F793" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G793" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="H793" s="10">
+        <v>66063</v>
+      </c>
+      <c r="I793">
+        <v>758</v>
+      </c>
+      <c r="J793">
+        <v>0.63437214426512101</v>
+      </c>
+      <c r="K793">
+        <v>2.5549422859986901</v>
+      </c>
+    </row>
+    <row r="794" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A794" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B794" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C794" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D794" s="1">
+        <v>0</v>
+      </c>
+      <c r="E794" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F794" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G794" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="H794" s="10">
+        <v>56203</v>
+      </c>
+      <c r="I794">
+        <v>474</v>
+      </c>
+      <c r="J794">
+        <v>0.62731574816556701</v>
+      </c>
+      <c r="K794">
+        <v>3.5313988445294302</v>
+      </c>
+    </row>
+    <row r="795" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A795" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B795" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C795" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D795" s="1">
+        <v>0</v>
+      </c>
+      <c r="E795" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F795" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G795" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="H795" s="10">
+        <v>63646</v>
+      </c>
+      <c r="I795">
+        <v>574</v>
+      </c>
+      <c r="J795">
+        <v>0.64212793267343504</v>
+      </c>
+      <c r="K795">
+        <v>2.8320597984847899</v>
+      </c>
+    </row>
+    <row r="796" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A796" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B796" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C796" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D796" s="1">
+        <v>0</v>
+      </c>
+      <c r="E796" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F796" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G796" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="H796" s="10">
+        <v>46992</v>
+      </c>
+      <c r="I796">
+        <v>732</v>
+      </c>
+      <c r="J796">
+        <v>0.61118152113796098</v>
+      </c>
+      <c r="K796">
+        <v>2.2744060634990499</v>
+      </c>
+    </row>
+    <row r="797" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A797" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B797" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C797" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D797" s="1">
+        <v>0</v>
+      </c>
+      <c r="E797" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F797" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G797" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H797" s="1">
+        <v>64456</v>
+      </c>
+      <c r="I797" s="1">
+        <v>570</v>
+      </c>
+      <c r="J797" s="1">
+        <v>0.61359825641120003</v>
+      </c>
+      <c r="K797">
+        <v>2.2025271835039399</v>
+      </c>
+    </row>
+    <row r="798" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A798" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B798" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C798" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D798" s="1">
+        <v>0</v>
+      </c>
+      <c r="E798" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F798" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G798" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H798" s="1">
+        <v>53018</v>
+      </c>
+      <c r="I798">
+        <v>399</v>
+      </c>
+      <c r="J798">
+        <v>0.61261916158713403</v>
+      </c>
+      <c r="K798">
+        <v>2.8948496591852502</v>
+      </c>
+    </row>
+    <row r="799" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A799" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B799" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C799" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D799" s="1">
+        <v>0</v>
+      </c>
+      <c r="E799" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F799" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G799" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H799" s="1">
+        <v>56530</v>
+      </c>
+      <c r="I799">
+        <v>301</v>
+      </c>
+      <c r="J799">
+        <v>0.60469376329624303</v>
+      </c>
+      <c r="K799">
+        <v>2.6313780238398299</v>
+      </c>
+    </row>
+    <row r="800" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A800" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B800" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C800" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D800" s="1">
+        <v>0</v>
+      </c>
+      <c r="E800" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F800" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G800" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H800" s="1">
+        <v>57119</v>
+      </c>
+      <c r="I800">
+        <v>686</v>
+      </c>
+      <c r="J800">
+        <v>0.592881400548254</v>
+      </c>
+      <c r="K800">
+        <v>1.87990203682955</v>
+      </c>
+    </row>
+    <row r="801" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A801" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B801" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C801" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D801" s="1">
+        <v>0</v>
+      </c>
+      <c r="E801" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F801" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G801" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H801" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I801">
+        <v>689</v>
+      </c>
+      <c r="J801">
+        <v>0.59438783602191902</v>
+      </c>
+      <c r="K801">
+        <v>1.9466712197286899</v>
+      </c>
+    </row>
+    <row r="802" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A802" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B802" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C802" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D802" s="1">
+        <v>0</v>
+      </c>
+      <c r="E802" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F802" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G802" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H802" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I802">
+        <v>589</v>
+      </c>
+      <c r="J802">
+        <v>0.59335623673502702</v>
+      </c>
+      <c r="K802">
+        <v>2.4300512793044402</v>
+      </c>
+    </row>
+    <row r="803" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A803" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B803" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C803" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D803" s="1">
+        <v>0</v>
+      </c>
+      <c r="E803" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F803" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G803" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H803" s="1">
+        <v>55004</v>
+      </c>
+      <c r="I803">
+        <v>739</v>
+      </c>
+      <c r="J803">
+        <v>0.59710972623673297</v>
+      </c>
+      <c r="K803">
+        <v>2.1648555136088499</v>
+      </c>
+    </row>
+    <row r="804" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A804" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B804" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C804" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D804" s="1">
+        <v>1</v>
+      </c>
+      <c r="E804" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F804" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G804" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H804" s="1">
+        <v>64309</v>
+      </c>
+      <c r="I804">
+        <v>972</v>
+      </c>
+      <c r="J804">
+        <v>0.55367703509884802</v>
+      </c>
+      <c r="K804">
+        <v>2.22611764946932</v>
+      </c>
+    </row>
+    <row r="805" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A805" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B805" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C805" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D805" s="1">
+        <v>1</v>
+      </c>
+      <c r="E805" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F805" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G805" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H805" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I805">
+        <v>796</v>
+      </c>
+      <c r="J805">
+        <v>0.58632313956798399</v>
+      </c>
+      <c r="K805">
+        <v>2.15631820831153</v>
+      </c>
+    </row>
+    <row r="806" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A806" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B806" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C806" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D806" s="1">
+        <v>1</v>
+      </c>
+      <c r="E806" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F806" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G806" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H806" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I806">
+        <v>734</v>
+      </c>
+      <c r="J806">
+        <v>0.60693022777922701</v>
+      </c>
+      <c r="K806">
+        <v>2.5516568945174698</v>
+      </c>
+    </row>
+    <row r="807" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A807" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B807" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C807" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D807" s="1">
+        <v>1</v>
+      </c>
+      <c r="E807" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F807" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G807" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H807" s="1">
+        <v>54749</v>
+      </c>
+      <c r="I807">
+        <v>456</v>
+      </c>
+      <c r="J807">
+        <v>0.62969428791241899</v>
+      </c>
+      <c r="K807">
+        <v>3.1349491032690802</v>
+      </c>
+    </row>
+    <row r="808" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A808" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B808" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C808" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D808" s="1">
+        <v>1</v>
+      </c>
+      <c r="E808" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F808" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G808" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H808" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I808">
+        <v>978</v>
+      </c>
+      <c r="J808">
+        <v>0.56542497851301998</v>
+      </c>
+      <c r="K808">
+        <v>2.0666288489542701</v>
+      </c>
+    </row>
+    <row r="809" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A809" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B809" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C809" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D809" s="1">
+        <v>1</v>
+      </c>
+      <c r="E809" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F809" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G809" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H809" s="1">
+        <v>45278</v>
+      </c>
+      <c r="I809">
+        <v>746</v>
+      </c>
+      <c r="J809">
+        <v>0.54044196755969898</v>
+      </c>
+      <c r="K809">
+        <v>2.2862643234423699</v>
+      </c>
+    </row>
+    <row r="810" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A810" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B810" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C810" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D810" s="1">
+        <v>0</v>
+      </c>
+      <c r="E810" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F810" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G810" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H810" s="1">
+        <v>65642</v>
+      </c>
+      <c r="I810">
+        <v>748</v>
+      </c>
+      <c r="J810">
+        <v>0.59941204542856397</v>
+      </c>
+      <c r="K810">
+        <v>2.5578560079189998</v>
+      </c>
+    </row>
+    <row r="811" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A811" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B811" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C811" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D811" s="1">
+        <v>0</v>
+      </c>
+      <c r="E811" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F811" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G811" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H811" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I811">
+        <v>735</v>
+      </c>
+      <c r="J811">
+        <v>0.63713051682969901</v>
+      </c>
+      <c r="K811">
+        <v>2.5133334512616701</v>
+      </c>
+    </row>
+    <row r="812" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A812" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B812" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C812" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D812" s="1">
+        <v>0</v>
+      </c>
+      <c r="E812" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F812" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G812" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H812" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I812">
+        <v>684</v>
+      </c>
+      <c r="J812">
+        <v>0.64418324685388495</v>
+      </c>
+      <c r="K812">
+        <v>2.6440837279060698</v>
+      </c>
+    </row>
+    <row r="813" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A813" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B813" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C813" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D813" s="1">
+        <v>0</v>
+      </c>
+      <c r="E813" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F813" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G813" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H813" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I813">
+        <v>673</v>
+      </c>
+      <c r="J813">
+        <v>0.63761095271211699</v>
+      </c>
+      <c r="K813">
+        <v>2.6891531089466199</v>
+      </c>
+    </row>
+    <row r="814" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A814" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B814" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C814" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D814" s="1">
+        <v>0</v>
+      </c>
+      <c r="E814" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F814" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G814" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H814" s="1">
+        <v>65520</v>
+      </c>
+      <c r="I814">
+        <v>875</v>
+      </c>
+      <c r="J814">
+        <v>0.62630559943822395</v>
+      </c>
+      <c r="K814">
+        <v>2.45174736431514</v>
+      </c>
+    </row>
+    <row r="815" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A815" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B815" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C815" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D815" s="1">
+        <v>0</v>
+      </c>
+      <c r="E815" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F815" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G815" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H815" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I815">
+        <v>820</v>
+      </c>
+      <c r="J815">
+        <v>0.60579248473816505</v>
+      </c>
+      <c r="K815">
+        <v>2.49324066510958</v>
+      </c>
+    </row>
+    <row r="816" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A816" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B816" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C816" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D816" s="1">
+        <v>0</v>
+      </c>
+      <c r="E816" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F816" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G816" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H816" s="1">
+        <v>65461</v>
+      </c>
+      <c r="I816">
+        <v>664</v>
+      </c>
+      <c r="J816">
+        <v>0.60703339153359903</v>
+      </c>
+      <c r="K816">
+        <v>2.6430620430690199</v>
+      </c>
+    </row>
+    <row r="817" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A817" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B817" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C817" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D817" s="1">
+        <v>0</v>
+      </c>
+      <c r="E817" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F817" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G817" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H817" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I817">
+        <v>818</v>
+      </c>
+      <c r="J817">
+        <v>0.604371331122738</v>
+      </c>
+      <c r="K817">
+        <v>2.2904460593600899</v>
+      </c>
+    </row>
+    <row r="818" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A818" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B818" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C818" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D818" s="1">
+        <v>0</v>
+      </c>
+      <c r="E818" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F818" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G818" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H818" s="1">
+        <v>65028</v>
+      </c>
+      <c r="I818">
+        <v>693</v>
+      </c>
+      <c r="J818">
+        <v>0.60298148392393502</v>
+      </c>
+      <c r="K818">
+        <v>2.3928381782538</v>
+      </c>
+    </row>
+    <row r="819" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A819" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B819" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C819" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D819" s="1">
+        <v>0</v>
+      </c>
+      <c r="E819" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F819" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G819" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H819" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I819">
+        <v>606</v>
+      </c>
+      <c r="J819">
+        <v>0.58241639570343595</v>
+      </c>
+      <c r="K819">
+        <v>2.5059932537053902</v>
+      </c>
+    </row>
+    <row r="820" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A820" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B820" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C820" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D820" s="1">
+        <v>0</v>
+      </c>
+      <c r="E820" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F820" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G820" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H820" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I820">
+        <v>631</v>
+      </c>
+      <c r="J820">
+        <v>0.62572987105658995</v>
+      </c>
+      <c r="K820">
+        <v>2.8287053664520099</v>
+      </c>
+    </row>
+    <row r="821" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A821" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B821" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C821" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D821" s="1">
+        <v>0</v>
+      </c>
+      <c r="E821" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F821" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G821" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H821" s="1">
+        <v>43004</v>
+      </c>
+      <c r="I821">
+        <v>502</v>
+      </c>
+      <c r="J821">
+        <v>0.61277138761664796</v>
+      </c>
+      <c r="K821">
+        <v>2.7956849329090701</v>
+      </c>
+    </row>
+    <row r="822" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A822" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B822" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C822" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D822" s="1">
+        <v>0</v>
+      </c>
+      <c r="E822" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F822" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G822" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H822" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I822">
+        <v>802</v>
+      </c>
+      <c r="J822">
+        <v>0.60484206256050199</v>
+      </c>
+      <c r="K822">
+        <v>2.3683307324464198</v>
+      </c>
+    </row>
+    <row r="823" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A823" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B823" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C823" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D823" s="1">
+        <v>0</v>
+      </c>
+      <c r="E823" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F823" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G823" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H823" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I823">
+        <v>710</v>
+      </c>
+      <c r="J823">
+        <v>0.61113600571383198</v>
+      </c>
+      <c r="K823">
+        <v>2.4336176517558599</v>
+      </c>
+    </row>
+    <row r="824" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A824" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B824" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C824" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D824" s="1">
+        <v>0</v>
+      </c>
+      <c r="E824" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F824" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G824" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="H824" s="1">
+        <v>62170</v>
+      </c>
+      <c r="I824">
+        <v>782</v>
+      </c>
+      <c r="J824">
+        <v>0.53698790956848896</v>
+      </c>
+      <c r="K824">
+        <v>2.2671671858465201</v>
+      </c>
+    </row>
+    <row r="825" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A825" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B825" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C825" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D825" s="1">
+        <v>0</v>
+      </c>
+      <c r="E825" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F825" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G825" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="H825" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I825">
+        <v>778</v>
+      </c>
+      <c r="J825">
+        <v>0.57988050425772097</v>
+      </c>
+      <c r="K825">
+        <v>2.2997511500451102</v>
+      </c>
+    </row>
+    <row r="826" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A826" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B826" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C826" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D826" s="1">
+        <v>0</v>
+      </c>
+      <c r="E826" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F826" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G826" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="H826" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I826">
+        <v>577</v>
+      </c>
+      <c r="J826">
+        <v>0.60083122059477501</v>
+      </c>
+      <c r="K826">
+        <v>2.2789893778684398</v>
+      </c>
+    </row>
+    <row r="827" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A827" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B827" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C827" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D827" s="1">
+        <v>0</v>
+      </c>
+      <c r="E827" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F827" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G827" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H827" s="1">
+        <v>54168</v>
+      </c>
+      <c r="I827">
+        <v>476</v>
+      </c>
+      <c r="J827">
+        <v>0.59645417636884901</v>
+      </c>
+      <c r="K827">
+        <v>2.2363984113374999</v>
+      </c>
+    </row>
+    <row r="828" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A828" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B828" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C828" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D828" s="1">
+        <v>0</v>
+      </c>
+      <c r="E828" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F828" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G828" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H828" s="1">
+        <v>57605</v>
+      </c>
+      <c r="I828">
+        <v>600</v>
+      </c>
+      <c r="J828">
+        <v>0.61715628300801995</v>
+      </c>
+      <c r="K828">
+        <v>2.3141419857022099</v>
+      </c>
+    </row>
+    <row r="829" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A829" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B829" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C829" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D829" s="1">
+        <v>0</v>
+      </c>
+      <c r="E829" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F829" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G829" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="H829" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I829">
+        <v>710</v>
+      </c>
+      <c r="J829">
+        <v>0.58518870798983602</v>
+      </c>
+      <c r="K829">
+        <v>2.4215740345043</v>
+      </c>
+    </row>
+    <row r="830" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A830" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B830" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C830" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D830" s="1">
+        <v>0</v>
+      </c>
+      <c r="E830" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F830" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G830" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="H830" s="1">
+        <v>64755</v>
+      </c>
+      <c r="I830">
+        <v>716</v>
+      </c>
+      <c r="J830">
+        <v>0.57250148223703101</v>
+      </c>
+      <c r="K830">
+        <v>2.4847913078497701</v>
+      </c>
+    </row>
+    <row r="831" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A831" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B831" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C831" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D831" s="1">
+        <v>0</v>
+      </c>
+      <c r="E831" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F831" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G831" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H831" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I831">
+        <v>645</v>
+      </c>
+      <c r="J831">
+        <v>0.59136083517878701</v>
+      </c>
+      <c r="K831">
+        <v>2.5694420653777201</v>
+      </c>
+    </row>
+    <row r="832" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A832" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B832" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C832" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D832" s="1">
+        <v>0</v>
+      </c>
+      <c r="E832" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F832" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G832" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H832" s="1">
+        <v>62854</v>
+      </c>
+      <c r="I832">
+        <v>640</v>
+      </c>
+      <c r="J832">
+        <v>0.59408603662178405</v>
+      </c>
+      <c r="K832">
+        <v>3.0684991729862898</v>
+      </c>
+    </row>
+    <row r="833" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A833" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B833" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C833" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D833" s="1">
+        <v>0</v>
+      </c>
+      <c r="E833" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F833" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G833" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H833" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I833">
+        <v>529</v>
+      </c>
+      <c r="J833">
+        <v>0.58004233918984005</v>
+      </c>
+      <c r="K833">
+        <v>2.83764991882189</v>
+      </c>
+    </row>
+    <row r="834" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A834" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B834" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C834" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D834" s="1">
+        <v>0</v>
+      </c>
+      <c r="E834" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F834" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G834" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H834" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I834">
+        <v>701</v>
+      </c>
+      <c r="J834">
+        <v>0.57110954285105497</v>
+      </c>
+      <c r="K834">
+        <v>2.3633231747002998</v>
+      </c>
+    </row>
+    <row r="835" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A835" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B835" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C835" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D835" s="1">
+        <v>0</v>
+      </c>
+      <c r="E835" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F835" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G835" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="H835" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I835">
+        <v>898</v>
+      </c>
+      <c r="J835">
+        <v>0.56659709849004802</v>
+      </c>
+      <c r="K835">
+        <v>1.96225449432612</v>
+      </c>
+    </row>
+    <row r="836" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A836" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B836" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C836" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D836" s="1">
+        <v>0</v>
+      </c>
+      <c r="E836" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F836" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G836" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H836" s="1">
+        <v>27076</v>
+      </c>
+      <c r="I836">
+        <v>935</v>
+      </c>
+      <c r="J836">
+        <v>0.57957859611212703</v>
+      </c>
+      <c r="K836">
+        <v>1.8877679434683901</v>
+      </c>
+    </row>
+    <row r="837" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A837" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B837" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C837" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D837" s="1">
+        <v>0</v>
+      </c>
+      <c r="E837" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F837" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G837" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="H837" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I837">
+        <v>152</v>
+      </c>
+      <c r="J837">
+        <v>0.59646993791089498</v>
+      </c>
+      <c r="K837">
+        <v>3.13087261329474</v>
+      </c>
+    </row>
+    <row r="838" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A838" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B838" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C838" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D838" s="1">
+        <v>0</v>
+      </c>
+      <c r="E838" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F838" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G838" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="H838" s="1">
+        <v>62412</v>
+      </c>
+      <c r="I838">
+        <v>444</v>
+      </c>
+      <c r="J838">
+        <v>0.61985121326242199</v>
+      </c>
+      <c r="K838">
+        <v>2.99184259864154</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K469" xr:uid="{00000000-0001-0000-0500-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K469">
-      <sortCondition ref="E1:E469"/>
-    </sortState>
+  <autoFilter ref="A1:K781" xr:uid="{00000000-0001-0000-0500-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="control"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="ip"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Charles Data.xlsx
+++ b/Charles Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\Isaacs Lab\DeepAxon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D597EFED-376B-4063-990A-FBA9DAC3E25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED007EE-766A-4C32-BAEB-6D5B6E060F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="27072" windowHeight="16272" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Animal Tracking" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Full Data (Per Image)" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Full Data (Per Image)'!$A$1:$K$781</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Full Data (Per Image)'!$A$1:$K$895</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Full Data (Per Nerve)'!$A$1:$K$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5772" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6114" uniqueCount="481">
   <si>
     <t>Batch</t>
   </si>
@@ -1481,7 +1481,10 @@
     <t>da_avg</t>
   </si>
   <si>
-    <t>da_full</t>
+    <t>da_full_major</t>
+  </si>
+  <si>
+    <t>da_full_avg</t>
   </si>
 </sst>
 </file>
@@ -12856,11 +12859,11 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K838"/>
+  <dimension ref="A1:K895"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A803" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I815" sqref="I815"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L401" sqref="L401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -39736,7 +39739,7 @@
         <v>2.9997286020813898</v>
       </c>
     </row>
-    <row r="782" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="1" t="s">
         <v>34</v>
       </c>
@@ -39750,7 +39753,7 @@
         <v>0</v>
       </c>
       <c r="E782" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F782" s="1" t="s">
         <v>156</v>
@@ -39771,7 +39774,7 @@
         <v>2.1871126844311002</v>
       </c>
     </row>
-    <row r="783" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="1" t="s">
         <v>34</v>
       </c>
@@ -39785,7 +39788,7 @@
         <v>0</v>
       </c>
       <c r="E783" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F783" s="1" t="s">
         <v>159</v>
@@ -39806,7 +39809,7 @@
         <v>2.2489149016944801</v>
       </c>
     </row>
-    <row r="784" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="1" t="s">
         <v>34</v>
       </c>
@@ -39820,7 +39823,7 @@
         <v>0</v>
       </c>
       <c r="E784" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F784" s="1" t="s">
         <v>162</v>
@@ -39841,7 +39844,7 @@
         <v>2.3754395392555199</v>
       </c>
     </row>
-    <row r="785" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="1" t="s">
         <v>34</v>
       </c>
@@ -39855,7 +39858,7 @@
         <v>0</v>
       </c>
       <c r="E785" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F785" s="1" t="s">
         <v>165</v>
@@ -39876,7 +39879,7 @@
         <v>2.4696956949100399</v>
       </c>
     </row>
-    <row r="786" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="1" t="s">
         <v>34</v>
       </c>
@@ -39890,7 +39893,7 @@
         <v>0</v>
       </c>
       <c r="E786" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F786" s="1" t="s">
         <v>168</v>
@@ -39911,7 +39914,7 @@
         <v>2.1285933043126</v>
       </c>
     </row>
-    <row r="787" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="1" t="s">
         <v>34</v>
       </c>
@@ -39925,7 +39928,7 @@
         <v>0</v>
       </c>
       <c r="E787" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F787" s="1" t="s">
         <v>171</v>
@@ -39946,7 +39949,7 @@
         <v>2.3819014339461502</v>
       </c>
     </row>
-    <row r="788" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="1" t="s">
         <v>34</v>
       </c>
@@ -39960,7 +39963,7 @@
         <v>0</v>
       </c>
       <c r="E788" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F788" s="1" t="s">
         <v>198</v>
@@ -39981,7 +39984,7 @@
         <v>3.1840708345884399</v>
       </c>
     </row>
-    <row r="789" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="1" t="s">
         <v>38</v>
       </c>
@@ -39995,7 +39998,7 @@
         <v>0</v>
       </c>
       <c r="E789" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F789" s="1" t="s">
         <v>156</v>
@@ -40016,7 +40019,7 @@
         <v>2.26306021984198</v>
       </c>
     </row>
-    <row r="790" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="1" t="s">
         <v>38</v>
       </c>
@@ -40030,7 +40033,7 @@
         <v>0</v>
       </c>
       <c r="E790" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F790" s="1" t="s">
         <v>159</v>
@@ -40051,7 +40054,7 @@
         <v>2.02733032669114</v>
       </c>
     </row>
-    <row r="791" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="1" t="s">
         <v>38</v>
       </c>
@@ -40065,7 +40068,7 @@
         <v>0</v>
       </c>
       <c r="E791" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F791" s="1" t="s">
         <v>162</v>
@@ -40086,7 +40089,7 @@
         <v>2.0876622097673798</v>
       </c>
     </row>
-    <row r="792" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="1" t="s">
         <v>38</v>
       </c>
@@ -40100,7 +40103,7 @@
         <v>0</v>
       </c>
       <c r="E792" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F792" s="1" t="s">
         <v>165</v>
@@ -40121,7 +40124,7 @@
         <v>2.0939660255274899</v>
       </c>
     </row>
-    <row r="793" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="1" t="s">
         <v>38</v>
       </c>
@@ -40135,7 +40138,7 @@
         <v>0</v>
       </c>
       <c r="E793" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F793" s="1" t="s">
         <v>168</v>
@@ -40156,7 +40159,7 @@
         <v>2.5549422859986901</v>
       </c>
     </row>
-    <row r="794" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="1" t="s">
         <v>38</v>
       </c>
@@ -40170,7 +40173,7 @@
         <v>0</v>
       </c>
       <c r="E794" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F794" s="1" t="s">
         <v>171</v>
@@ -40191,7 +40194,7 @@
         <v>3.5313988445294302</v>
       </c>
     </row>
-    <row r="795" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="1" t="s">
         <v>38</v>
       </c>
@@ -40205,7 +40208,7 @@
         <v>0</v>
       </c>
       <c r="E795" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F795" s="1" t="s">
         <v>198</v>
@@ -40226,7 +40229,7 @@
         <v>2.8320597984847899</v>
       </c>
     </row>
-    <row r="796" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="1" t="s">
         <v>38</v>
       </c>
@@ -40240,7 +40243,7 @@
         <v>0</v>
       </c>
       <c r="E796" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F796" s="1" t="s">
         <v>253</v>
@@ -40261,7 +40264,7 @@
         <v>2.2744060634990499</v>
       </c>
     </row>
-    <row r="797" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="1" t="s">
         <v>40</v>
       </c>
@@ -40275,7 +40278,7 @@
         <v>0</v>
       </c>
       <c r="E797" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F797" s="1" t="s">
         <v>156</v>
@@ -40296,7 +40299,7 @@
         <v>2.2025271835039399</v>
       </c>
     </row>
-    <row r="798" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="1" t="s">
         <v>40</v>
       </c>
@@ -40310,7 +40313,7 @@
         <v>0</v>
       </c>
       <c r="E798" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F798" s="1" t="s">
         <v>159</v>
@@ -40331,7 +40334,7 @@
         <v>2.8948496591852502</v>
       </c>
     </row>
-    <row r="799" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="1" t="s">
         <v>40</v>
       </c>
@@ -40345,7 +40348,7 @@
         <v>0</v>
       </c>
       <c r="E799" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F799" s="1" t="s">
         <v>162</v>
@@ -40366,7 +40369,7 @@
         <v>2.6313780238398299</v>
       </c>
     </row>
-    <row r="800" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="1" t="s">
         <v>40</v>
       </c>
@@ -40380,7 +40383,7 @@
         <v>0</v>
       </c>
       <c r="E800" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F800" s="1" t="s">
         <v>165</v>
@@ -40401,7 +40404,7 @@
         <v>1.87990203682955</v>
       </c>
     </row>
-    <row r="801" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="1" t="s">
         <v>40</v>
       </c>
@@ -40415,7 +40418,7 @@
         <v>0</v>
       </c>
       <c r="E801" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F801" s="1" t="s">
         <v>168</v>
@@ -40436,7 +40439,7 @@
         <v>1.9466712197286899</v>
       </c>
     </row>
-    <row r="802" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="1" t="s">
         <v>40</v>
       </c>
@@ -40450,7 +40453,7 @@
         <v>0</v>
       </c>
       <c r="E802" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F802" s="1" t="s">
         <v>171</v>
@@ -40471,7 +40474,7 @@
         <v>2.4300512793044402</v>
       </c>
     </row>
-    <row r="803" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="1" t="s">
         <v>40</v>
       </c>
@@ -40485,7 +40488,7 @@
         <v>0</v>
       </c>
       <c r="E803" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F803" s="1" t="s">
         <v>198</v>
@@ -40506,7 +40509,7 @@
         <v>2.1648555136088499</v>
       </c>
     </row>
-    <row r="804" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="1" t="s">
         <v>50</v>
       </c>
@@ -40520,7 +40523,7 @@
         <v>1</v>
       </c>
       <c r="E804" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F804" s="1" t="s">
         <v>156</v>
@@ -40541,7 +40544,7 @@
         <v>2.22611764946932</v>
       </c>
     </row>
-    <row r="805" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="1" t="s">
         <v>50</v>
       </c>
@@ -40555,7 +40558,7 @@
         <v>1</v>
       </c>
       <c r="E805" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F805" s="1" t="s">
         <v>159</v>
@@ -40576,7 +40579,7 @@
         <v>2.15631820831153</v>
       </c>
     </row>
-    <row r="806" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="1" t="s">
         <v>50</v>
       </c>
@@ -40590,7 +40593,7 @@
         <v>1</v>
       </c>
       <c r="E806" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F806" s="1" t="s">
         <v>162</v>
@@ -40611,7 +40614,7 @@
         <v>2.5516568945174698</v>
       </c>
     </row>
-    <row r="807" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="1" t="s">
         <v>50</v>
       </c>
@@ -40625,7 +40628,7 @@
         <v>1</v>
       </c>
       <c r="E807" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F807" s="1" t="s">
         <v>165</v>
@@ -40646,7 +40649,7 @@
         <v>3.1349491032690802</v>
       </c>
     </row>
-    <row r="808" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="1" t="s">
         <v>50</v>
       </c>
@@ -40660,7 +40663,7 @@
         <v>1</v>
       </c>
       <c r="E808" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F808" s="1" t="s">
         <v>168</v>
@@ -40681,7 +40684,7 @@
         <v>2.0666288489542701</v>
       </c>
     </row>
-    <row r="809" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="1" t="s">
         <v>50</v>
       </c>
@@ -40695,7 +40698,7 @@
         <v>1</v>
       </c>
       <c r="E809" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F809" s="1" t="s">
         <v>171</v>
@@ -40716,7 +40719,7 @@
         <v>2.2862643234423699</v>
       </c>
     </row>
-    <row r="810" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="1" t="s">
         <v>48</v>
       </c>
@@ -40730,7 +40733,7 @@
         <v>0</v>
       </c>
       <c r="E810" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F810" s="1" t="s">
         <v>156</v>
@@ -40751,7 +40754,7 @@
         <v>2.5578560079189998</v>
       </c>
     </row>
-    <row r="811" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="1" t="s">
         <v>48</v>
       </c>
@@ -40765,7 +40768,7 @@
         <v>0</v>
       </c>
       <c r="E811" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F811" s="1" t="s">
         <v>159</v>
@@ -40786,7 +40789,7 @@
         <v>2.5133334512616701</v>
       </c>
     </row>
-    <row r="812" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="1" t="s">
         <v>48</v>
       </c>
@@ -40800,7 +40803,7 @@
         <v>0</v>
       </c>
       <c r="E812" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F812" s="1" t="s">
         <v>162</v>
@@ -40821,7 +40824,7 @@
         <v>2.6440837279060698</v>
       </c>
     </row>
-    <row r="813" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="1" t="s">
         <v>48</v>
       </c>
@@ -40835,7 +40838,7 @@
         <v>0</v>
       </c>
       <c r="E813" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F813" s="1" t="s">
         <v>165</v>
@@ -40856,7 +40859,7 @@
         <v>2.6891531089466199</v>
       </c>
     </row>
-    <row r="814" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="1" t="s">
         <v>48</v>
       </c>
@@ -40870,7 +40873,7 @@
         <v>0</v>
       </c>
       <c r="E814" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F814" s="1" t="s">
         <v>168</v>
@@ -40891,7 +40894,7 @@
         <v>2.45174736431514</v>
       </c>
     </row>
-    <row r="815" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="1" t="s">
         <v>48</v>
       </c>
@@ -40905,7 +40908,7 @@
         <v>0</v>
       </c>
       <c r="E815" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F815" s="1" t="s">
         <v>171</v>
@@ -40926,7 +40929,7 @@
         <v>2.49324066510958</v>
       </c>
     </row>
-    <row r="816" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="1" t="s">
         <v>46</v>
       </c>
@@ -40940,7 +40943,7 @@
         <v>0</v>
       </c>
       <c r="E816" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F816" s="1" t="s">
         <v>156</v>
@@ -40961,7 +40964,7 @@
         <v>2.6430620430690199</v>
       </c>
     </row>
-    <row r="817" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="1" t="s">
         <v>46</v>
       </c>
@@ -40975,7 +40978,7 @@
         <v>0</v>
       </c>
       <c r="E817" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F817" s="1" t="s">
         <v>159</v>
@@ -40996,7 +40999,7 @@
         <v>2.2904460593600899</v>
       </c>
     </row>
-    <row r="818" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="1" t="s">
         <v>46</v>
       </c>
@@ -41010,7 +41013,7 @@
         <v>0</v>
       </c>
       <c r="E818" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F818" s="1" t="s">
         <v>162</v>
@@ -41031,7 +41034,7 @@
         <v>2.3928381782538</v>
       </c>
     </row>
-    <row r="819" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="1" t="s">
         <v>46</v>
       </c>
@@ -41045,7 +41048,7 @@
         <v>0</v>
       </c>
       <c r="E819" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F819" s="1" t="s">
         <v>165</v>
@@ -41066,7 +41069,7 @@
         <v>2.5059932537053902</v>
       </c>
     </row>
-    <row r="820" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="1" t="s">
         <v>46</v>
       </c>
@@ -41080,7 +41083,7 @@
         <v>0</v>
       </c>
       <c r="E820" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F820" s="1" t="s">
         <v>168</v>
@@ -41101,7 +41104,7 @@
         <v>2.8287053664520099</v>
       </c>
     </row>
-    <row r="821" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="1" t="s">
         <v>46</v>
       </c>
@@ -41115,7 +41118,7 @@
         <v>0</v>
       </c>
       <c r="E821" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F821" s="1" t="s">
         <v>171</v>
@@ -41136,7 +41139,7 @@
         <v>2.7956849329090701</v>
       </c>
     </row>
-    <row r="822" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="1" t="s">
         <v>46</v>
       </c>
@@ -41150,7 +41153,7 @@
         <v>0</v>
       </c>
       <c r="E822" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F822" s="1" t="s">
         <v>198</v>
@@ -41171,7 +41174,7 @@
         <v>2.3683307324464198</v>
       </c>
     </row>
-    <row r="823" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="1" t="s">
         <v>46</v>
       </c>
@@ -41185,7 +41188,7 @@
         <v>0</v>
       </c>
       <c r="E823" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F823" s="1" t="s">
         <v>253</v>
@@ -41206,7 +41209,7 @@
         <v>2.4336176517558599</v>
       </c>
     </row>
-    <row r="824" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="1" t="s">
         <v>42</v>
       </c>
@@ -41220,7 +41223,7 @@
         <v>0</v>
       </c>
       <c r="E824" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F824" s="1" t="s">
         <v>156</v>
@@ -41241,7 +41244,7 @@
         <v>2.2671671858465201</v>
       </c>
     </row>
-    <row r="825" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="1" t="s">
         <v>42</v>
       </c>
@@ -41255,7 +41258,7 @@
         <v>0</v>
       </c>
       <c r="E825" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F825" s="1" t="s">
         <v>159</v>
@@ -41276,7 +41279,7 @@
         <v>2.2997511500451102</v>
       </c>
     </row>
-    <row r="826" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="1" t="s">
         <v>42</v>
       </c>
@@ -41290,7 +41293,7 @@
         <v>0</v>
       </c>
       <c r="E826" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F826" s="1" t="s">
         <v>162</v>
@@ -41311,7 +41314,7 @@
         <v>2.2789893778684398</v>
       </c>
     </row>
-    <row r="827" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="1" t="s">
         <v>42</v>
       </c>
@@ -41325,7 +41328,7 @@
         <v>0</v>
       </c>
       <c r="E827" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F827" s="1" t="s">
         <v>165</v>
@@ -41346,7 +41349,7 @@
         <v>2.2363984113374999</v>
       </c>
     </row>
-    <row r="828" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="1" t="s">
         <v>42</v>
       </c>
@@ -41360,7 +41363,7 @@
         <v>0</v>
       </c>
       <c r="E828" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F828" s="1" t="s">
         <v>168</v>
@@ -41381,7 +41384,7 @@
         <v>2.3141419857022099</v>
       </c>
     </row>
-    <row r="829" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="1" t="s">
         <v>42</v>
       </c>
@@ -41395,7 +41398,7 @@
         <v>0</v>
       </c>
       <c r="E829" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F829" s="1" t="s">
         <v>171</v>
@@ -41416,7 +41419,7 @@
         <v>2.4215740345043</v>
       </c>
     </row>
-    <row r="830" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="1" t="s">
         <v>42</v>
       </c>
@@ -41430,7 +41433,7 @@
         <v>0</v>
       </c>
       <c r="E830" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F830" s="1" t="s">
         <v>198</v>
@@ -41451,7 +41454,7 @@
         <v>2.4847913078497701</v>
       </c>
     </row>
-    <row r="831" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="1" t="s">
         <v>44</v>
       </c>
@@ -41465,7 +41468,7 @@
         <v>0</v>
       </c>
       <c r="E831" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F831" s="1" t="s">
         <v>156</v>
@@ -41486,7 +41489,7 @@
         <v>2.5694420653777201</v>
       </c>
     </row>
-    <row r="832" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="1" t="s">
         <v>44</v>
       </c>
@@ -41500,7 +41503,7 @@
         <v>0</v>
       </c>
       <c r="E832" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F832" s="1" t="s">
         <v>159</v>
@@ -41521,7 +41524,7 @@
         <v>3.0684991729862898</v>
       </c>
     </row>
-    <row r="833" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="1" t="s">
         <v>44</v>
       </c>
@@ -41535,7 +41538,7 @@
         <v>0</v>
       </c>
       <c r="E833" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F833" s="1" t="s">
         <v>162</v>
@@ -41556,7 +41559,7 @@
         <v>2.83764991882189</v>
       </c>
     </row>
-    <row r="834" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="1" t="s">
         <v>44</v>
       </c>
@@ -41570,7 +41573,7 @@
         <v>0</v>
       </c>
       <c r="E834" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F834" s="1" t="s">
         <v>165</v>
@@ -41591,7 +41594,7 @@
         <v>2.3633231747002998</v>
       </c>
     </row>
-    <row r="835" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="1" t="s">
         <v>44</v>
       </c>
@@ -41605,7 +41608,7 @@
         <v>0</v>
       </c>
       <c r="E835" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F835" s="1" t="s">
         <v>168</v>
@@ -41626,7 +41629,7 @@
         <v>1.96225449432612</v>
       </c>
     </row>
-    <row r="836" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="1" t="s">
         <v>44</v>
       </c>
@@ -41640,7 +41643,7 @@
         <v>0</v>
       </c>
       <c r="E836" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F836" s="1" t="s">
         <v>171</v>
@@ -41661,7 +41664,7 @@
         <v>1.8877679434683901</v>
       </c>
     </row>
-    <row r="837" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="1" t="s">
         <v>44</v>
       </c>
@@ -41675,7 +41678,7 @@
         <v>0</v>
       </c>
       <c r="E837" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F837" s="1" t="s">
         <v>198</v>
@@ -41696,7 +41699,7 @@
         <v>3.13087261329474</v>
       </c>
     </row>
-    <row r="838" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="1" t="s">
         <v>44</v>
       </c>
@@ -41710,7 +41713,7 @@
         <v>0</v>
       </c>
       <c r="E838" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F838" s="1" t="s">
         <v>253</v>
@@ -41731,8 +41734,2003 @@
         <v>2.99184259864154</v>
       </c>
     </row>
+    <row r="839" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A839" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B839" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C839" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D839" s="1">
+        <v>0</v>
+      </c>
+      <c r="E839" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F839" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G839" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H839" s="1">
+        <v>64586</v>
+      </c>
+      <c r="I839">
+        <v>1099</v>
+      </c>
+      <c r="J839">
+        <v>0.55689538239181002</v>
+      </c>
+      <c r="K839">
+        <v>2.6264271155526102</v>
+      </c>
+    </row>
+    <row r="840" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A840" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B840" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C840" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D840" s="1">
+        <v>0</v>
+      </c>
+      <c r="E840" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F840" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G840" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H840" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I840">
+        <v>928</v>
+      </c>
+      <c r="J840">
+        <v>0.61423577223301995</v>
+      </c>
+      <c r="K840">
+        <v>2.7654375843799799</v>
+      </c>
+    </row>
+    <row r="841" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A841" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B841" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C841" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D841" s="1">
+        <v>0</v>
+      </c>
+      <c r="E841" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F841" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G841" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H841" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I841">
+        <v>819</v>
+      </c>
+      <c r="J841">
+        <v>0.60567452938557498</v>
+      </c>
+      <c r="K841">
+        <v>2.9929594752461699</v>
+      </c>
+    </row>
+    <row r="842" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A842" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B842" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C842" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D842" s="1">
+        <v>0</v>
+      </c>
+      <c r="E842" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F842" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G842" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H842" s="1">
+        <v>55757</v>
+      </c>
+      <c r="I842">
+        <v>693</v>
+      </c>
+      <c r="J842">
+        <v>0.58763397027563902</v>
+      </c>
+      <c r="K842">
+        <v>3.2332346061500301</v>
+      </c>
+    </row>
+    <row r="843" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A843" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B843" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C843" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D843" s="1">
+        <v>0</v>
+      </c>
+      <c r="E843" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F843" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G843" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H843" s="1">
+        <v>65164</v>
+      </c>
+      <c r="I843">
+        <v>1048</v>
+      </c>
+      <c r="J843">
+        <v>0.59077530899518704</v>
+      </c>
+      <c r="K843">
+        <v>2.6395400130634199</v>
+      </c>
+    </row>
+    <row r="844" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A844" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B844" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C844" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D844" s="1">
+        <v>0</v>
+      </c>
+      <c r="E844" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F844" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G844" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H844" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I844">
+        <v>915</v>
+      </c>
+      <c r="J844">
+        <v>0.60788094121900105</v>
+      </c>
+      <c r="K844">
+        <v>3.0965200274702598</v>
+      </c>
+    </row>
+    <row r="845" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A845" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B845" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C845" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D845" s="1">
+        <v>0</v>
+      </c>
+      <c r="E845" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F845" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G845" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H845" s="1">
+        <v>60903</v>
+      </c>
+      <c r="I845">
+        <v>581</v>
+      </c>
+      <c r="J845">
+        <v>0.66288579212547505</v>
+      </c>
+      <c r="K845">
+        <v>3.8714930088542299</v>
+      </c>
+    </row>
+    <row r="846" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A846" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B846" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C846" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D846" s="1">
+        <v>0</v>
+      </c>
+      <c r="E846" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F846" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G846" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H846" s="10">
+        <v>64764</v>
+      </c>
+      <c r="I846">
+        <v>908</v>
+      </c>
+      <c r="J846">
+        <v>0.64588342172642799</v>
+      </c>
+      <c r="K846">
+        <v>2.8864902313058698</v>
+      </c>
+    </row>
+    <row r="847" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A847" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B847" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C847" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D847" s="1">
+        <v>0</v>
+      </c>
+      <c r="E847" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F847" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G847" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="H847" s="10">
+        <v>66063</v>
+      </c>
+      <c r="I847">
+        <v>1045</v>
+      </c>
+      <c r="J847">
+        <v>0.68161402692795603</v>
+      </c>
+      <c r="K847">
+        <v>2.8334675008130099</v>
+      </c>
+    </row>
+    <row r="848" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A848" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B848" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C848" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D848" s="1">
+        <v>0</v>
+      </c>
+      <c r="E848" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F848" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G848" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="H848" s="10">
+        <v>66063</v>
+      </c>
+      <c r="I848">
+        <v>894</v>
+      </c>
+      <c r="J848">
+        <v>0.69160171481074695</v>
+      </c>
+      <c r="K848">
+        <v>2.94992739273138</v>
+      </c>
+    </row>
+    <row r="849" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A849" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B849" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C849" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D849" s="1">
+        <v>0</v>
+      </c>
+      <c r="E849" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F849" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G849" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="H849" s="10">
+        <v>66063</v>
+      </c>
+      <c r="I849">
+        <v>889</v>
+      </c>
+      <c r="J849">
+        <v>0.69097660292065899</v>
+      </c>
+      <c r="K849">
+        <v>2.9197688416382799</v>
+      </c>
+    </row>
+    <row r="850" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A850" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B850" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C850" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D850" s="1">
+        <v>0</v>
+      </c>
+      <c r="E850" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F850" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G850" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="H850" s="10">
+        <v>66063</v>
+      </c>
+      <c r="I850">
+        <v>773</v>
+      </c>
+      <c r="J850">
+        <v>0.69448734454527095</v>
+      </c>
+      <c r="K850">
+        <v>3.3495449424653598</v>
+      </c>
+    </row>
+    <row r="851" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A851" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B851" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C851" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D851" s="1">
+        <v>0</v>
+      </c>
+      <c r="E851" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F851" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G851" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="H851" s="10">
+        <v>56203</v>
+      </c>
+      <c r="I851">
+        <v>477</v>
+      </c>
+      <c r="J851">
+        <v>0.65690836637231698</v>
+      </c>
+      <c r="K851">
+        <v>4.3471253792993503</v>
+      </c>
+    </row>
+    <row r="852" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A852" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B852" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C852" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D852" s="1">
+        <v>0</v>
+      </c>
+      <c r="E852" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F852" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G852" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="H852" s="10">
+        <v>63646</v>
+      </c>
+      <c r="I852">
+        <v>586</v>
+      </c>
+      <c r="J852">
+        <v>0.69525964891006797</v>
+      </c>
+      <c r="K852">
+        <v>3.60045368145714</v>
+      </c>
+    </row>
+    <row r="853" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A853" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B853" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C853" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D853" s="1">
+        <v>0</v>
+      </c>
+      <c r="E853" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F853" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G853" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="H853" s="10">
+        <v>46992</v>
+      </c>
+      <c r="I853">
+        <v>739</v>
+      </c>
+      <c r="J853">
+        <v>0.66992998578042495</v>
+      </c>
+      <c r="K853">
+        <v>2.9640873442690201</v>
+      </c>
+    </row>
+    <row r="854" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A854" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B854" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C854" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D854" s="1">
+        <v>0</v>
+      </c>
+      <c r="E854" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F854" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G854" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H854" s="1">
+        <v>64456</v>
+      </c>
+      <c r="I854">
+        <v>401</v>
+      </c>
+      <c r="J854">
+        <v>0.65138952689992302</v>
+      </c>
+      <c r="K854">
+        <v>3.4507641374495202</v>
+      </c>
+    </row>
+    <row r="855" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A855" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B855" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C855" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D855" s="1">
+        <v>0</v>
+      </c>
+      <c r="E855" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F855" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G855" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H855" s="1">
+        <v>53018</v>
+      </c>
+      <c r="I855">
+        <v>305</v>
+      </c>
+      <c r="J855">
+        <v>0.66342384138785804</v>
+      </c>
+      <c r="K855">
+        <v>3.2635636818482401</v>
+      </c>
+    </row>
+    <row r="856" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A856" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B856" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C856" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D856" s="1">
+        <v>0</v>
+      </c>
+      <c r="E856" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F856" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G856" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H856" s="1">
+        <v>56530</v>
+      </c>
+      <c r="I856">
+        <v>692</v>
+      </c>
+      <c r="J856">
+        <v>0.65227585619458806</v>
+      </c>
+      <c r="K856">
+        <v>2.37832760768435</v>
+      </c>
+    </row>
+    <row r="857" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A857" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B857" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C857" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D857" s="1">
+        <v>0</v>
+      </c>
+      <c r="E857" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F857" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G857" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H857" s="1">
+        <v>57119</v>
+      </c>
+      <c r="I857">
+        <v>694</v>
+      </c>
+      <c r="J857">
+        <v>0.644320209676567</v>
+      </c>
+      <c r="K857">
+        <v>2.4370722643803302</v>
+      </c>
+    </row>
+    <row r="858" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A858" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B858" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C858" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D858" s="1">
+        <v>0</v>
+      </c>
+      <c r="E858" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F858" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G858" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H858" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I858">
+        <v>595</v>
+      </c>
+      <c r="J858">
+        <v>0.63876130007724397</v>
+      </c>
+      <c r="K858">
+        <v>3.0386125085577498</v>
+      </c>
+    </row>
+    <row r="859" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A859" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B859" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C859" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D859" s="1">
+        <v>0</v>
+      </c>
+      <c r="E859" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F859" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G859" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H859" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I859">
+        <v>750</v>
+      </c>
+      <c r="J859">
+        <v>0.66368601492294599</v>
+      </c>
+      <c r="K859">
+        <v>2.8138337631630401</v>
+      </c>
+    </row>
+    <row r="860" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A860" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B860" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C860" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D860" s="1">
+        <v>0</v>
+      </c>
+      <c r="E860" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F860" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G860" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H860" s="1">
+        <v>55004</v>
+      </c>
+      <c r="I860">
+        <v>581</v>
+      </c>
+      <c r="J860">
+        <v>0.67399337064255305</v>
+      </c>
+      <c r="K860">
+        <v>2.7870866837719399</v>
+      </c>
+    </row>
+    <row r="861" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A861" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B861" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C861" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D861" s="1">
+        <v>1</v>
+      </c>
+      <c r="E861" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F861" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G861" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H861" s="1">
+        <v>64309</v>
+      </c>
+      <c r="I861">
+        <v>977</v>
+      </c>
+      <c r="J861">
+        <v>0.59494971299545096</v>
+      </c>
+      <c r="K861">
+        <v>2.77959012500602</v>
+      </c>
+    </row>
+    <row r="862" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A862" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B862" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C862" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D862" s="1">
+        <v>1</v>
+      </c>
+      <c r="E862" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F862" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G862" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H862" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I862">
+        <v>803</v>
+      </c>
+      <c r="J862">
+        <v>0.63764261771534902</v>
+      </c>
+      <c r="K862">
+        <v>2.7513950338350002</v>
+      </c>
+    </row>
+    <row r="863" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A863" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B863" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C863" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D863" s="1">
+        <v>1</v>
+      </c>
+      <c r="E863" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F863" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G863" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H863" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I863">
+        <v>736</v>
+      </c>
+      <c r="J863">
+        <v>0.64669424233918904</v>
+      </c>
+      <c r="K863">
+        <v>3.1681589092403502</v>
+      </c>
+    </row>
+    <row r="864" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A864" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B864" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C864" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D864" s="1">
+        <v>1</v>
+      </c>
+      <c r="E864" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F864" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G864" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H864" s="1">
+        <v>54749</v>
+      </c>
+      <c r="I864">
+        <v>458</v>
+      </c>
+      <c r="J864">
+        <v>0.66691078034533402</v>
+      </c>
+      <c r="K864">
+        <v>3.7067280168738499</v>
+      </c>
+    </row>
+    <row r="865" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A865" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B865" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C865" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D865" s="1">
+        <v>1</v>
+      </c>
+      <c r="E865" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F865" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G865" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H865" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I865">
+        <v>993</v>
+      </c>
+      <c r="J865">
+        <v>0.62300241037243298</v>
+      </c>
+      <c r="K865">
+        <v>2.7389881270043901</v>
+      </c>
+    </row>
+    <row r="866" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A866" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B866" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C866" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D866" s="1">
+        <v>1</v>
+      </c>
+      <c r="E866" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F866" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G866" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H866" s="1">
+        <v>45278</v>
+      </c>
+      <c r="I866">
+        <v>752</v>
+      </c>
+      <c r="J866">
+        <v>0.58521149980398401</v>
+      </c>
+      <c r="K866">
+        <v>2.8718209287667298</v>
+      </c>
+    </row>
+    <row r="867" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A867" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B867" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C867" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D867" s="1">
+        <v>0</v>
+      </c>
+      <c r="E867" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F867" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G867" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H867" s="1">
+        <v>65642</v>
+      </c>
+      <c r="I867">
+        <v>748</v>
+      </c>
+      <c r="J867">
+        <v>0.62846928659795698</v>
+      </c>
+      <c r="K867">
+        <v>3.0443126735486499</v>
+      </c>
+    </row>
+    <row r="868" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A868" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B868" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C868" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D868" s="1">
+        <v>0</v>
+      </c>
+      <c r="E868" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F868" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G868" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H868" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I868">
+        <v>744</v>
+      </c>
+      <c r="J868">
+        <v>0.67871766934077604</v>
+      </c>
+      <c r="K868">
+        <v>2.9923567532889801</v>
+      </c>
+    </row>
+    <row r="869" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A869" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B869" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C869" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D869" s="1">
+        <v>0</v>
+      </c>
+      <c r="E869" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F869" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G869" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H869" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I869">
+        <v>693</v>
+      </c>
+      <c r="J869">
+        <v>0.68344597405451901</v>
+      </c>
+      <c r="K869">
+        <v>3.2317098307382701</v>
+      </c>
+    </row>
+    <row r="870" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A870" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B870" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C870" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D870" s="1">
+        <v>0</v>
+      </c>
+      <c r="E870" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F870" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G870" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H870" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I870">
+        <v>676</v>
+      </c>
+      <c r="J870">
+        <v>0.66933471409470402</v>
+      </c>
+      <c r="K870">
+        <v>3.2437845320343999</v>
+      </c>
+    </row>
+    <row r="871" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A871" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B871" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C871" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D871" s="1">
+        <v>0</v>
+      </c>
+      <c r="E871" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F871" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G871" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H871" s="1">
+        <v>65520</v>
+      </c>
+      <c r="I871">
+        <v>883</v>
+      </c>
+      <c r="J871">
+        <v>0.66829627620922005</v>
+      </c>
+      <c r="K871">
+        <v>3.1005915443668202</v>
+      </c>
+    </row>
+    <row r="872" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A872" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B872" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C872" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D872" s="1">
+        <v>0</v>
+      </c>
+      <c r="E872" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F872" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G872" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H872" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I872">
+        <v>822</v>
+      </c>
+      <c r="J872">
+        <v>0.62967994605280997</v>
+      </c>
+      <c r="K872">
+        <v>2.9362108217132099</v>
+      </c>
+    </row>
+    <row r="873" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A873" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B873" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C873" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D873" s="1">
+        <v>0</v>
+      </c>
+      <c r="E873" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F873" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G873" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H873" s="1">
+        <v>65461</v>
+      </c>
+      <c r="I873">
+        <v>668</v>
+      </c>
+      <c r="J873">
+        <v>0.642863713880933</v>
+      </c>
+      <c r="K873">
+        <v>3.2654385528034702</v>
+      </c>
+    </row>
+    <row r="874" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A874" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B874" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C874" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D874" s="1">
+        <v>0</v>
+      </c>
+      <c r="E874" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F874" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G874" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H874" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I874">
+        <v>827</v>
+      </c>
+      <c r="J874">
+        <v>0.65814881555778904</v>
+      </c>
+      <c r="K874">
+        <v>3.0215611509729698</v>
+      </c>
+    </row>
+    <row r="875" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A875" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B875" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C875" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D875" s="1">
+        <v>0</v>
+      </c>
+      <c r="E875" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F875" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G875" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H875" s="1">
+        <v>65028</v>
+      </c>
+      <c r="I875">
+        <v>697</v>
+      </c>
+      <c r="J875">
+        <v>0.65248503734781904</v>
+      </c>
+      <c r="K875">
+        <v>3.0723789699929598</v>
+      </c>
+    </row>
+    <row r="876" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A876" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B876" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C876" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D876" s="1">
+        <v>0</v>
+      </c>
+      <c r="E876" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F876" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G876" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H876" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I876">
+        <v>614</v>
+      </c>
+      <c r="J876">
+        <v>0.62561053162381497</v>
+      </c>
+      <c r="K876">
+        <v>3.1561177563059402</v>
+      </c>
+    </row>
+    <row r="877" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A877" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B877" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C877" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D877" s="1">
+        <v>0</v>
+      </c>
+      <c r="E877" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F877" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G877" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H877" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I877">
+        <v>636</v>
+      </c>
+      <c r="J877">
+        <v>0.66744132686934499</v>
+      </c>
+      <c r="K877">
+        <v>3.5710040447207998</v>
+      </c>
+    </row>
+    <row r="878" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A878" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B878" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C878" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D878" s="1">
+        <v>0</v>
+      </c>
+      <c r="E878" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F878" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G878" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H878" s="1">
+        <v>43004</v>
+      </c>
+      <c r="I878">
+        <v>508</v>
+      </c>
+      <c r="J878">
+        <v>0.65440732898520404</v>
+      </c>
+      <c r="K878">
+        <v>3.4060892802051099</v>
+      </c>
+    </row>
+    <row r="879" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A879" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B879" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C879" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D879" s="1">
+        <v>0</v>
+      </c>
+      <c r="E879" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F879" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G879" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H879" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I879">
+        <v>808</v>
+      </c>
+      <c r="J879">
+        <v>0.64951634364328503</v>
+      </c>
+      <c r="K879">
+        <v>2.9678501511129798</v>
+      </c>
+    </row>
+    <row r="880" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A880" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B880" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C880" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D880" s="1">
+        <v>0</v>
+      </c>
+      <c r="E880" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F880" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G880" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H880" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I880">
+        <v>716</v>
+      </c>
+      <c r="J880">
+        <v>0.65959090088465699</v>
+      </c>
+      <c r="K880">
+        <v>3.13317037438012</v>
+      </c>
+    </row>
+    <row r="881" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A881" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B881" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C881" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D881" s="1">
+        <v>0</v>
+      </c>
+      <c r="E881" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F881" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G881" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="H881" s="1">
+        <v>62170</v>
+      </c>
+      <c r="I881">
+        <v>786</v>
+      </c>
+      <c r="J881">
+        <v>0.57135248154922702</v>
+      </c>
+      <c r="K881">
+        <v>2.8202650463938901</v>
+      </c>
+    </row>
+    <row r="882" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A882" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B882" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C882" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D882" s="1">
+        <v>0</v>
+      </c>
+      <c r="E882" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F882" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G882" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="H882" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I882">
+        <v>780</v>
+      </c>
+      <c r="J882">
+        <v>0.61361668561618798</v>
+      </c>
+      <c r="K882">
+        <v>2.8555010381792698</v>
+      </c>
+    </row>
+    <row r="883" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A883" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B883" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C883" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D883" s="1">
+        <v>0</v>
+      </c>
+      <c r="E883" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F883" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G883" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="H883" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I883">
+        <v>579</v>
+      </c>
+      <c r="J883">
+        <v>0.64848823836629599</v>
+      </c>
+      <c r="K883">
+        <v>2.8970046612083098</v>
+      </c>
+    </row>
+    <row r="884" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A884" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B884" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C884" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D884" s="1">
+        <v>0</v>
+      </c>
+      <c r="E884" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F884" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G884" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H884" s="1">
+        <v>54168</v>
+      </c>
+      <c r="I884">
+        <v>479</v>
+      </c>
+      <c r="J884">
+        <v>0.651747993664753</v>
+      </c>
+      <c r="K884">
+        <v>2.8666618433841098</v>
+      </c>
+    </row>
+    <row r="885" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A885" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B885" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C885" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D885" s="1">
+        <v>0</v>
+      </c>
+      <c r="E885" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F885" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G885" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H885" s="1">
+        <v>57605</v>
+      </c>
+      <c r="I885">
+        <v>603</v>
+      </c>
+      <c r="J885">
+        <v>0.66903127116931804</v>
+      </c>
+      <c r="K885">
+        <v>2.94348104944318</v>
+      </c>
+    </row>
+    <row r="886" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A886" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B886" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C886" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D886" s="1">
+        <v>0</v>
+      </c>
+      <c r="E886" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F886" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G886" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="H886" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I886">
+        <v>714</v>
+      </c>
+      <c r="J886">
+        <v>0.625757642348302</v>
+      </c>
+      <c r="K886">
+        <v>3.0028008043584098</v>
+      </c>
+    </row>
+    <row r="887" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A887" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B887" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C887" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D887" s="1">
+        <v>0</v>
+      </c>
+      <c r="E887" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F887" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G887" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="H887" s="1">
+        <v>64755</v>
+      </c>
+      <c r="I887">
+        <v>720</v>
+      </c>
+      <c r="J887">
+        <v>0.620409120853185</v>
+      </c>
+      <c r="K887">
+        <v>3.14831211777466</v>
+      </c>
+    </row>
+    <row r="888" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A888" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B888" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C888" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D888" s="1">
+        <v>0</v>
+      </c>
+      <c r="E888" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F888" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G888" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H888" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I888">
+        <v>640</v>
+      </c>
+      <c r="J888">
+        <v>0.62858490043680304</v>
+      </c>
+      <c r="K888">
+        <v>3.81879854122566</v>
+      </c>
+    </row>
+    <row r="889" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A889" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B889" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C889" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D889" s="1">
+        <v>0</v>
+      </c>
+      <c r="E889" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F889" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G889" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H889" s="1">
+        <v>62854</v>
+      </c>
+      <c r="I889">
+        <v>531</v>
+      </c>
+      <c r="J889">
+        <v>0.61251234422367795</v>
+      </c>
+      <c r="K889">
+        <v>3.5112811600373499</v>
+      </c>
+    </row>
+    <row r="890" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A890" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B890" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C890" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D890" s="1">
+        <v>0</v>
+      </c>
+      <c r="E890" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F890" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G890" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H890" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I890">
+        <v>705</v>
+      </c>
+      <c r="J890">
+        <v>0.62007753013584599</v>
+      </c>
+      <c r="K890">
+        <v>3.0788359459188301</v>
+      </c>
+    </row>
+    <row r="891" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A891" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B891" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C891" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D891" s="1">
+        <v>0</v>
+      </c>
+      <c r="E891" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F891" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G891" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H891" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I891">
+        <v>905</v>
+      </c>
+      <c r="J891">
+        <v>0.62376858594042495</v>
+      </c>
+      <c r="K891">
+        <v>2.60703478065202</v>
+      </c>
+    </row>
+    <row r="892" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A892" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B892" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C892" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D892" s="1">
+        <v>0</v>
+      </c>
+      <c r="E892" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F892" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G892" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="H892" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I892">
+        <v>951</v>
+      </c>
+      <c r="J892">
+        <v>0.64762263589777103</v>
+      </c>
+      <c r="K892">
+        <v>2.5057672391648</v>
+      </c>
+    </row>
+    <row r="893" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A893" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B893" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C893" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D893" s="1">
+        <v>0</v>
+      </c>
+      <c r="E893" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F893" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G893" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H893" s="1">
+        <v>27076</v>
+      </c>
+      <c r="I893">
+        <v>157</v>
+      </c>
+      <c r="J893">
+        <v>0.65229700502065902</v>
+      </c>
+      <c r="K893">
+        <v>3.9444511282252201</v>
+      </c>
+    </row>
+    <row r="894" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A894" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B894" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C894" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D894" s="1">
+        <v>0</v>
+      </c>
+      <c r="E894" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F894" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G894" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="H894" s="1">
+        <v>66063</v>
+      </c>
+      <c r="I894">
+        <v>447</v>
+      </c>
+      <c r="J894">
+        <v>0.66492596419031802</v>
+      </c>
+      <c r="K894">
+        <v>3.67518834783223</v>
+      </c>
+    </row>
+    <row r="895" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A895" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B895" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C895" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D895" s="1">
+        <v>0</v>
+      </c>
+      <c r="E895" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F895" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G895" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="H895" s="1">
+        <v>62412</v>
+      </c>
+      <c r="I895">
+        <v>651</v>
+      </c>
+      <c r="J895">
+        <v>0.63549398937018198</v>
+      </c>
+      <c r="K895">
+        <v>3.2530417391525401</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K781" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <autoFilter ref="A1:K895" xr:uid="{00000000-0001-0000-0500-000000000000}">
     <filterColumn colId="2">
       <filters>
         <filter val="control"/>
